--- a/Filtered_By_Region/Region V/Region V_LMS.xlsx
+++ b/Filtered_By_Region/Region V/Region V_LMS.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,9 +17,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,6 +719,11 @@
           <t>Provision of Solar Panel</t>
         </is>
       </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -885,16 +891,6 @@
       <c r="AS2" t="n">
         <v>0</v>
       </c>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
@@ -1068,19 +1064,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
         <v>0</v>
       </c>
@@ -1254,19 +1242,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="n">
         <v>1</v>
       </c>
@@ -1442,19 +1422,11 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr">
         <is>
           <t>CY 2022</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="n">
         <v>0</v>
       </c>
@@ -1625,20 +1597,12 @@
       <c r="AS6" t="n">
         <v>0</v>
       </c>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>1</v>
       </c>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1774,9 @@
       <c r="AT7" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
         <v>1</v>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
-      <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
         <v>0</v>
       </c>
@@ -1992,19 +1948,12 @@
       <c r="AT8" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU8" t="inlineStr"/>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
       </c>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
-      <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="n">
         <v>0</v>
       </c>
@@ -2066,8 +2015,6 @@
       <c r="N9" t="n">
         <v>0.99</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
@@ -2168,19 +2115,12 @@
       <c r="AT9" t="n">
         <v>6.25</v>
       </c>
-      <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
       </c>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
         <v>0</v>
       </c>
@@ -2242,16 +2182,6 @@
       <c r="N10" t="n">
         <v>0.0505</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
@@ -2317,20 +2247,12 @@
       <c r="AS10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>0</v>
       </c>
@@ -2392,16 +2314,6 @@
       <c r="N11" t="n">
         <v>0.55</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
@@ -2467,20 +2379,12 @@
       <c r="AS11" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="n">
         <v>0</v>
       </c>
       <c r="AW11" t="n">
         <v>1</v>
       </c>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="n">
         <v>0</v>
       </c>
@@ -2654,19 +2558,11 @@
       <c r="AT12" t="n">
         <v>6.23</v>
       </c>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="n">
         <v>0</v>
       </c>
@@ -2838,21 +2734,14 @@
       <c r="AT13" t="n">
         <v>6.24</v>
       </c>
-      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
         <v>1</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr">
         <is>
           <t>CY 2024</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
         <v>0</v>
       </c>
@@ -2914,7 +2803,7 @@
       <c r="N14" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="3" t="n">
         <v>45231</v>
       </c>
       <c r="P14" t="inlineStr">
@@ -2928,19 +2817,19 @@
       <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="3" t="n">
         <v>45093</v>
       </c>
-      <c r="W14" s="2" t="n">
+      <c r="W14" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="X14" t="n">
@@ -3012,21 +2901,14 @@
       <c r="AT14" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
         <v>1</v>
       </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
@@ -3088,7 +2970,7 @@
       <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="3" t="n">
         <v>44980</v>
       </c>
       <c r="P15" t="inlineStr">
@@ -3112,7 +2994,7 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="3" t="n">
         <v>44707</v>
       </c>
       <c r="V15" t="inlineStr">
@@ -3120,7 +3002,7 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W15" s="2" t="n">
+      <c r="W15" s="3" t="n">
         <v>44768</v>
       </c>
       <c r="X15" t="inlineStr">
@@ -3194,19 +3076,11 @@
       <c r="AT15" t="n">
         <v>8.23</v>
       </c>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr">
         <is>
           <t>CY 2023</t>
         </is>
       </c>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="n">
         <v>0</v>
       </c>
@@ -3268,10 +3142,10 @@
       <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="2" t="n">
+      <c r="O16" s="3" t="n">
         <v>45241</v>
       </c>
-      <c r="P16" s="2" t="n">
+      <c r="P16" s="3" t="n">
         <v>45348</v>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3286,19 +3160,19 @@
 2023CN</t>
         </is>
       </c>
-      <c r="S16" s="2" t="n">
+      <c r="S16" s="3" t="n">
         <v>45054</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="3" t="n">
         <v>45061</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="3" t="n">
         <v>45082</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="3" t="n">
         <v>45093</v>
       </c>
-      <c r="W16" s="2" t="n">
+      <c r="W16" s="3" t="n">
         <v>45106</v>
       </c>
       <c r="X16" t="inlineStr">
@@ -3382,10 +3256,6 @@
       <c r="AV16" t="n">
         <v>1</v>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3394,7 +3264,6 @@
       <c r="BB16" t="n">
         <v>1</v>
       </c>
-      <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
@@ -3574,10 +3443,6 @@
       <c r="AV17" t="n">
         <v>1</v>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3586,7 +3451,6 @@
       <c r="BB17" t="n">
         <v>1</v>
       </c>
-      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="n">
         <v>0</v>
       </c>
@@ -3648,10 +3512,10 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="3" t="n">
         <v>45267</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="3" t="n">
         <v>45301</v>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3664,19 +3528,19 @@
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="2" t="n">
+      <c r="W18" s="3" t="n">
         <v>45117</v>
       </c>
       <c r="X18" t="inlineStr">
@@ -3758,10 +3622,6 @@
       <c r="AV18" t="n">
         <v>1</v>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3770,7 +3630,6 @@
       <c r="BB18" t="n">
         <v>1</v>
       </c>
-      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
         <v>0</v>
       </c>
@@ -3832,10 +3691,10 @@
       <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="3" t="n">
         <v>45263</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="3" t="n">
         <v>45307</v>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3848,19 +3707,19 @@
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W19" s="2" t="n">
+      <c r="W19" s="3" t="n">
         <v>45113</v>
       </c>
       <c r="X19" t="inlineStr">
@@ -3942,10 +3801,6 @@
       <c r="AV19" t="n">
         <v>1</v>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -3954,7 +3809,6 @@
       <c r="BB19" t="n">
         <v>1</v>
       </c>
-      <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="n">
         <v>0</v>
       </c>
@@ -4016,10 +3870,10 @@
       <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="O20" s="2" t="n">
+      <c r="O20" s="3" t="n">
         <v>45270</v>
       </c>
-      <c r="P20" s="2" t="n">
+      <c r="P20" s="3" t="n">
         <v>45383</v>
       </c>
       <c r="Q20" t="inlineStr">
@@ -4032,19 +3886,19 @@
           <t>2023-07-038</t>
         </is>
       </c>
-      <c r="S20" s="2" t="n">
+      <c r="S20" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W20" s="2" t="n">
+      <c r="W20" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="X20" t="inlineStr">
@@ -4126,10 +3980,6 @@
       <c r="AV20" t="n">
         <v>1</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4138,7 +3988,6 @@
       <c r="BB20" t="n">
         <v>1</v>
       </c>
-      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
         <v>0</v>
       </c>
@@ -4200,10 +4049,10 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="3" t="n">
         <v>45262</v>
       </c>
-      <c r="P21" s="2" t="n">
+      <c r="P21" s="3" t="n">
         <v>45306</v>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4216,19 +4065,19 @@
           <t>2023-07-039</t>
         </is>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W21" s="2" t="n">
+      <c r="W21" s="3" t="n">
         <v>45112</v>
       </c>
       <c r="X21" t="inlineStr">
@@ -4310,10 +4159,6 @@
       <c r="AV21" t="n">
         <v>1</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="inlineStr"/>
-      <c r="AY21" t="inlineStr"/>
-      <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4322,7 +4167,6 @@
       <c r="BB21" t="n">
         <v>1</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="n">
         <v>0</v>
       </c>
@@ -4384,10 +4228,10 @@
       <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="3" t="n">
         <v>45270</v>
       </c>
-      <c r="P22" s="2" t="n">
+      <c r="P22" s="3" t="n">
         <v>45272</v>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4400,19 +4244,19 @@
           <t>2023-07-040</t>
         </is>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W22" s="2" t="n">
+      <c r="W22" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="X22" t="inlineStr">
@@ -4494,10 +4338,6 @@
       <c r="AV22" t="n">
         <v>1</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4506,7 +4346,6 @@
       <c r="BB22" t="n">
         <v>1</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
         <v>0</v>
       </c>
@@ -4568,10 +4407,10 @@
       <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="3" t="n">
         <v>45636</v>
       </c>
-      <c r="P23" s="2" t="n">
+      <c r="P23" s="3" t="n">
         <v>45306</v>
       </c>
       <c r="Q23" t="inlineStr">
@@ -4584,19 +4423,19 @@
           <t>2023-07-041</t>
         </is>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="3" t="n">
         <v>45057</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="3" t="n">
         <v>45065</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="3" t="n">
         <v>45079</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="3" t="n">
         <v>45110</v>
       </c>
-      <c r="W23" s="2" t="n">
+      <c r="W23" s="3" t="n">
         <v>45120</v>
       </c>
       <c r="X23" t="inlineStr">
@@ -4678,10 +4517,6 @@
       <c r="AV23" t="n">
         <v>1</v>
       </c>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr">
         <is>
           <t>CY 2024</t>
@@ -4690,7 +4525,6 @@
       <c r="BB23" t="n">
         <v>1</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="n">
         <v>0</v>
       </c>
@@ -4754,10 +4588,10 @@
       <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="2" t="n">
+      <c r="O24" s="3" t="n">
         <v>45637</v>
       </c>
-      <c r="P24" s="2" t="n">
+      <c r="P24" s="3" t="n">
         <v>45697</v>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4770,19 +4604,19 @@
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S24" s="2" t="n">
+      <c r="S24" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="T24" s="2" t="n">
+      <c r="T24" s="3" t="n">
         <v>45245</v>
       </c>
-      <c r="U24" s="2" t="n">
+      <c r="U24" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="W24" s="2" t="n">
+      <c r="W24" s="3" t="n">
         <v>45457</v>
       </c>
       <c r="X24" t="inlineStr">
@@ -4858,14 +4692,6 @@
       <c r="AT24" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU24" t="inlineStr"/>
-      <c r="AV24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr"/>
-      <c r="AX24" t="inlineStr"/>
-      <c r="AY24" t="inlineStr"/>
-      <c r="AZ24" t="inlineStr"/>
-      <c r="BA24" t="inlineStr"/>
-      <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr">
         <is>
           <t>1st</t>
@@ -4934,10 +4760,10 @@
       <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="3" t="n">
         <v>45607</v>
       </c>
-      <c r="P25" s="2" t="n">
+      <c r="P25" s="3" t="n">
         <v>45667</v>
       </c>
       <c r="Q25" t="inlineStr">
@@ -4950,19 +4776,19 @@
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="3" t="n">
         <v>45237</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="3" t="n">
         <v>45245</v>
       </c>
-      <c r="U25" s="2" t="n">
+      <c r="U25" s="3" t="n">
         <v>45266</v>
       </c>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="3" t="n">
         <v>45307</v>
       </c>
-      <c r="W25" s="2" t="n">
+      <c r="W25" s="3" t="n">
         <v>45457</v>
       </c>
       <c r="X25" t="inlineStr">
@@ -5038,14 +4864,6 @@
       <c r="AT25" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU25" t="inlineStr"/>
-      <c r="AV25" t="inlineStr"/>
-      <c r="AW25" t="inlineStr"/>
-      <c r="AX25" t="inlineStr"/>
-      <c r="AY25" t="inlineStr"/>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5114,10 +4932,10 @@
       <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="3" t="n">
         <v>45634</v>
       </c>
-      <c r="P26" s="2" t="n">
+      <c r="P26" s="3" t="n">
         <v>45727</v>
       </c>
       <c r="Q26" t="inlineStr">
@@ -5130,19 +4948,19 @@
           <t>2024-05-043</t>
         </is>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U26" s="2" t="n">
+      <c r="U26" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="3" t="n">
         <v>45301</v>
       </c>
-      <c r="W26" s="2" t="n">
+      <c r="W26" s="3" t="n">
         <v>45454</v>
       </c>
       <c r="X26" t="inlineStr">
@@ -5218,14 +5036,6 @@
       <c r="AT26" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU26" t="inlineStr"/>
-      <c r="AV26" t="inlineStr"/>
-      <c r="AW26" t="inlineStr"/>
-      <c r="AX26" t="inlineStr"/>
-      <c r="AY26" t="inlineStr"/>
-      <c r="AZ26" t="inlineStr"/>
-      <c r="BA26" t="inlineStr"/>
-      <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5294,10 +5104,9 @@
       <c r="N27" t="n">
         <v>0.99</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="3" t="n">
         <v>45591</v>
       </c>
-      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t>2024-05-044</t>
@@ -5308,19 +5117,19 @@
           <t>2024-05-044</t>
         </is>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U27" s="2" t="n">
+      <c r="U27" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="3" t="n">
         <v>45313</v>
       </c>
-      <c r="W27" s="2" t="n">
+      <c r="W27" s="3" t="n">
         <v>45456</v>
       </c>
       <c r="X27" t="inlineStr">
@@ -5328,7 +5137,6 @@
           <t>TGME Construction and Supply</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
@@ -5392,14 +5200,6 @@
       <c r="AT27" t="n">
         <v>6.25</v>
       </c>
-      <c r="AU27" t="inlineStr"/>
-      <c r="AV27" t="inlineStr"/>
-      <c r="AW27" t="inlineStr"/>
-      <c r="AX27" t="inlineStr"/>
-      <c r="AY27" t="inlineStr"/>
-      <c r="AZ27" t="inlineStr"/>
-      <c r="BA27" t="inlineStr"/>
-      <c r="BB27" t="inlineStr"/>
       <c r="BC27" t="inlineStr">
         <is>
           <t>4th</t>
@@ -5468,10 +5268,9 @@
       <c r="N28" t="n">
         <v>1</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="3" t="n">
         <v>45574</v>
       </c>
-      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t>2024-05-045</t>
@@ -5482,19 +5281,19 @@
           <t>2024-05-045</t>
         </is>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U28" s="2" t="n">
+      <c r="U28" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="3" t="n">
         <v>45309</v>
       </c>
-      <c r="W28" s="2" t="n">
+      <c r="W28" s="3" t="n">
         <v>45454</v>
       </c>
       <c r="X28" t="inlineStr">
@@ -5568,14 +5367,6 @@
       <c r="AT28" t="n">
         <v>12.24</v>
       </c>
-      <c r="AU28" t="inlineStr"/>
-      <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
-      <c r="AX28" t="inlineStr"/>
-      <c r="AY28" t="inlineStr"/>
-      <c r="AZ28" t="inlineStr"/>
-      <c r="BA28" t="inlineStr"/>
-      <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="inlineStr">
         <is>
           <t>4th</t>
@@ -5644,10 +5435,9 @@
       <c r="N29" t="n">
         <v>1</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="3" t="n">
         <v>45576</v>
       </c>
-      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t>2024-05-046</t>
@@ -5658,19 +5448,19 @@
           <t>2024-05-046</t>
         </is>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U29" s="2" t="n">
+      <c r="U29" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="3" t="n">
         <v>45289</v>
       </c>
-      <c r="W29" s="2" t="n">
+      <c r="W29" s="3" t="n">
         <v>45456</v>
       </c>
       <c r="X29" t="inlineStr">
@@ -5746,14 +5536,6 @@
           <t>previous yrs</t>
         </is>
       </c>
-      <c r="AU29" t="inlineStr"/>
-      <c r="AV29" t="inlineStr"/>
-      <c r="AW29" t="inlineStr"/>
-      <c r="AX29" t="inlineStr"/>
-      <c r="AY29" t="inlineStr"/>
-      <c r="AZ29" t="inlineStr"/>
-      <c r="BA29" t="inlineStr"/>
-      <c r="BB29" t="inlineStr"/>
       <c r="BC29" t="inlineStr">
         <is>
           <t>4th</t>
@@ -5822,10 +5604,9 @@
       <c r="N30" t="n">
         <v>0.99</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="3" t="n">
         <v>45584</v>
       </c>
-      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t>2024-05-047</t>
@@ -5836,19 +5617,19 @@
           <t>2024-05-047</t>
         </is>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U30" s="2" t="n">
+      <c r="U30" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="3" t="n">
         <v>45309</v>
       </c>
-      <c r="W30" s="2" t="n">
+      <c r="W30" s="3" t="n">
         <v>45464</v>
       </c>
       <c r="X30" t="inlineStr">
@@ -5856,7 +5637,6 @@
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
@@ -5920,14 +5700,6 @@
       <c r="AT30" t="n">
         <v>6.25</v>
       </c>
-      <c r="AU30" t="inlineStr"/>
-      <c r="AV30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr"/>
-      <c r="AX30" t="inlineStr"/>
-      <c r="AY30" t="inlineStr"/>
-      <c r="AZ30" t="inlineStr"/>
-      <c r="BA30" t="inlineStr"/>
-      <c r="BB30" t="inlineStr"/>
       <c r="BC30" t="inlineStr">
         <is>
           <t>1st</t>
@@ -5996,10 +5768,9 @@
       <c r="N31" t="n">
         <v>0.99</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="3" t="n">
         <v>45573</v>
       </c>
-      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t>2024-05-048</t>
@@ -6010,19 +5781,19 @@
           <t>2024-05-048</t>
         </is>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="3" t="n">
         <v>45253</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="3" t="n">
         <v>45261</v>
       </c>
-      <c r="U31" s="2" t="n">
+      <c r="U31" s="3" t="n">
         <v>45273</v>
       </c>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="3" t="n">
         <v>45313</v>
       </c>
-      <c r="W31" s="2" t="n">
+      <c r="W31" s="3" t="n">
         <v>45453</v>
       </c>
       <c r="X31" t="inlineStr">
@@ -6030,7 +5801,6 @@
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
@@ -6094,14 +5864,6 @@
       <c r="AT31" t="n">
         <v>6.25</v>
       </c>
-      <c r="AU31" t="inlineStr"/>
-      <c r="AV31" t="inlineStr"/>
-      <c r="AW31" t="inlineStr"/>
-      <c r="AX31" t="inlineStr"/>
-      <c r="AY31" t="inlineStr"/>
-      <c r="AZ31" t="inlineStr"/>
-      <c r="BA31" t="inlineStr"/>
-      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6170,7 +5932,7 @@
       <c r="N32" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="3" t="n">
         <v>45587</v>
       </c>
       <c r="P32" t="inlineStr">
@@ -6204,7 +5966,7 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W32" s="2" t="n">
+      <c r="W32" s="3" t="n">
         <v>45436</v>
       </c>
       <c r="X32" t="inlineStr">
@@ -6278,14 +6040,6 @@
       <c r="AT32" t="n">
         <v>11.24</v>
       </c>
-      <c r="AU32" t="inlineStr"/>
-      <c r="AV32" t="inlineStr"/>
-      <c r="AW32" t="inlineStr"/>
-      <c r="AX32" t="inlineStr"/>
-      <c r="AY32" t="inlineStr"/>
-      <c r="AZ32" t="inlineStr"/>
-      <c r="BA32" t="inlineStr"/>
-      <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6354,7 +6108,7 @@
       <c r="N33" t="n">
         <v>0.95</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="3" t="n">
         <v>45587</v>
       </c>
       <c r="P33" t="inlineStr">
@@ -6388,7 +6142,7 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W33" s="2" t="n">
+      <c r="W33" s="3" t="n">
         <v>45436</v>
       </c>
       <c r="X33" t="inlineStr">
@@ -6459,15 +6213,6 @@
       <c r="AS33" t="n">
         <v>0</v>
       </c>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
-      <c r="AV33" t="inlineStr"/>
-      <c r="AW33" t="inlineStr"/>
-      <c r="AX33" t="inlineStr"/>
-      <c r="AY33" t="inlineStr"/>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6536,7 +6281,7 @@
       <c r="N34" t="n">
         <v>0.9</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="P34" t="inlineStr">
@@ -6554,19 +6299,19 @@
           <t>2024-026</t>
         </is>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="U34" s="2" t="n">
+      <c r="U34" s="3" t="n">
         <v>45537</v>
       </c>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="3" t="n">
         <v>45555</v>
       </c>
-      <c r="W34" s="2" t="n">
+      <c r="W34" s="3" t="n">
         <v>45654</v>
       </c>
       <c r="X34" t="inlineStr">
@@ -6637,15 +6382,6 @@
       <c r="AS34" t="n">
         <v>0.9</v>
       </c>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
-      <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
-      <c r="AX34" t="inlineStr"/>
-      <c r="AY34" t="inlineStr"/>
-      <c r="AZ34" t="inlineStr"/>
-      <c r="BA34" t="inlineStr"/>
-      <c r="BB34" t="inlineStr"/>
       <c r="BC34" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6714,7 +6450,7 @@
       <c r="N35" t="n">
         <v>0.8</v>
       </c>
-      <c r="O35" s="2" t="n">
+      <c r="O35" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="P35" t="inlineStr">
@@ -6732,19 +6468,19 @@
           <t>2024-027</t>
         </is>
       </c>
-      <c r="S35" s="2" t="n">
+      <c r="S35" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="T35" s="2" t="n">
+      <c r="T35" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="U35" s="2" t="n">
+      <c r="U35" s="3" t="n">
         <v>45537</v>
       </c>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="3" t="n">
         <v>45555</v>
       </c>
-      <c r="W35" s="2" t="n">
+      <c r="W35" s="3" t="n">
         <v>45654</v>
       </c>
       <c r="X35" t="inlineStr">
@@ -6815,15 +6551,6 @@
       <c r="AS35" t="n">
         <v>0.8</v>
       </c>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
-      <c r="AV35" t="inlineStr"/>
-      <c r="AW35" t="inlineStr"/>
-      <c r="AX35" t="inlineStr"/>
-      <c r="AY35" t="inlineStr"/>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
       <c r="BC35" t="inlineStr">
         <is>
           <t>1st</t>
@@ -6892,7 +6619,7 @@
       <c r="N36" t="n">
         <v>0.85</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="P36" t="inlineStr">
@@ -6910,19 +6637,19 @@
           <t>2024-021</t>
         </is>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="3" t="n">
         <v>45553</v>
       </c>
-      <c r="U36" s="2" t="n">
+      <c r="U36" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="3" t="n">
         <v>45587</v>
       </c>
-      <c r="W36" s="2" t="n">
+      <c r="W36" s="3" t="n">
         <v>45654</v>
       </c>
       <c r="X36" t="inlineStr">
@@ -6993,15 +6720,6 @@
       <c r="AS36" t="n">
         <v>0.85</v>
       </c>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
-      <c r="AV36" t="inlineStr"/>
-      <c r="AW36" t="inlineStr"/>
-      <c r="AX36" t="inlineStr"/>
-      <c r="AY36" t="inlineStr"/>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
       <c r="BC36" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7070,7 +6788,7 @@
       <c r="N37" t="n">
         <v>0.9</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="P37" t="inlineStr">
@@ -7088,19 +6806,19 @@
           <t>2024-028</t>
         </is>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="3" t="n">
         <v>45516</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="3" t="n">
         <v>45524</v>
       </c>
-      <c r="U37" s="2" t="n">
+      <c r="U37" s="3" t="n">
         <v>45537</v>
       </c>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="3" t="n">
         <v>45555</v>
       </c>
-      <c r="W37" s="2" t="n">
+      <c r="W37" s="3" t="n">
         <v>45654</v>
       </c>
       <c r="X37" t="inlineStr">
@@ -7171,15 +6889,6 @@
       <c r="AS37" t="n">
         <v>0.9</v>
       </c>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
-      <c r="AV37" t="inlineStr"/>
-      <c r="AW37" t="inlineStr"/>
-      <c r="AX37" t="inlineStr"/>
-      <c r="AY37" t="inlineStr"/>
-      <c r="AZ37" t="inlineStr"/>
-      <c r="BA37" t="inlineStr"/>
-      <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7248,7 +6957,7 @@
       <c r="N38" t="n">
         <v>0.9</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="3" t="n">
         <v>45804</v>
       </c>
       <c r="P38" t="inlineStr">
@@ -7266,19 +6975,19 @@
           <t>2024-022</t>
         </is>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="3" t="n">
         <v>45545</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="3" t="n">
         <v>45553</v>
       </c>
-      <c r="U38" s="2" t="n">
+      <c r="U38" s="3" t="n">
         <v>45565</v>
       </c>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="3" t="n">
         <v>45587</v>
       </c>
-      <c r="W38" s="2" t="n">
+      <c r="W38" s="3" t="n">
         <v>45654</v>
       </c>
       <c r="X38" t="inlineStr">
@@ -7349,15 +7058,6 @@
       <c r="AS38" t="n">
         <v>0.9</v>
       </c>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
-      <c r="AV38" t="inlineStr"/>
-      <c r="AW38" t="inlineStr"/>
-      <c r="AX38" t="inlineStr"/>
-      <c r="AY38" t="inlineStr"/>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -7426,10 +7126,10 @@
       <c r="N39" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="3" t="n">
         <v>45767</v>
       </c>
-      <c r="P39" s="2" t="n">
+      <c r="P39" s="3" t="n">
         <v>45765</v>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7442,19 +7142,19 @@
           <t>LMS 2024 - RV - MASBATE CITY - 001</t>
         </is>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="3" t="n">
         <v>45358</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="3" t="n">
         <v>45474</v>
       </c>
-      <c r="W39" s="2" t="n">
+      <c r="W39" s="3" t="n">
         <v>45488</v>
       </c>
       <c r="X39" t="inlineStr">
@@ -7528,14 +7228,6 @@
       <c r="AT39" t="n">
         <v>5.25</v>
       </c>
-      <c r="AU39" t="inlineStr"/>
-      <c r="AV39" t="inlineStr"/>
-      <c r="AW39" t="inlineStr"/>
-      <c r="AX39" t="inlineStr"/>
-      <c r="AY39" t="inlineStr"/>
-      <c r="AZ39" t="inlineStr"/>
-      <c r="BA39" t="inlineStr"/>
-      <c r="BB39" t="inlineStr"/>
       <c r="BC39" t="inlineStr">
         <is>
           <t>1st</t>
@@ -7604,7 +7296,7 @@
       <c r="N40" t="n">
         <v>0.2</v>
       </c>
-      <c r="O40" s="2" t="n">
+      <c r="O40" s="3" t="n">
         <v>45879</v>
       </c>
       <c r="P40" t="inlineStr">
@@ -7622,19 +7314,19 @@
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S40" s="2" t="n">
+      <c r="S40" s="3" t="n">
         <v>45412</v>
       </c>
-      <c r="T40" s="2" t="n">
+      <c r="T40" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="U40" s="2" t="n">
+      <c r="U40" s="3" t="n">
         <v>45432</v>
       </c>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="W40" s="2" t="n">
+      <c r="W40" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="X40" t="inlineStr">
@@ -7705,15 +7397,6 @@
       <c r="AS40" t="n">
         <v>0.2</v>
       </c>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
       <c r="BC40" t="inlineStr">
         <is>
           <t>3rd</t>
@@ -7782,7 +7465,7 @@
       <c r="N41" t="n">
         <v>0.1</v>
       </c>
-      <c r="O41" s="2" t="n">
+      <c r="O41" s="3" t="n">
         <v>45909</v>
       </c>
       <c r="P41" t="inlineStr">
@@ -7800,19 +7483,19 @@
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S41" s="2" t="n">
+      <c r="S41" s="3" t="n">
         <v>45412</v>
       </c>
-      <c r="T41" s="2" t="n">
+      <c r="T41" s="3" t="n">
         <v>45420</v>
       </c>
-      <c r="U41" s="2" t="n">
+      <c r="U41" s="3" t="n">
         <v>45432</v>
       </c>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="3" t="n">
         <v>45632</v>
       </c>
-      <c r="W41" s="2" t="n">
+      <c r="W41" s="3" t="n">
         <v>45730</v>
       </c>
       <c r="X41" t="inlineStr">
@@ -7883,15 +7566,6 @@
       <c r="AS41" t="n">
         <v>0.1</v>
       </c>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="inlineStr">
         <is>
           <t>2nd</t>
@@ -7899,6 +7573,79 @@
       </c>
       <c r="BD41" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="BE2:BE41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%: Foundation completed: Groundwork finished; no vertical structure yet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%: Structure and rough-in started: Structural framing in progress; initial MEP rough-in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%: Structure erected, partial roofing: Building shape defined; roof and systems advancing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%: Exterior sealed, interior work underway: Enclosed structure; painting, flooring, and testing begin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76% - 90%: Final finishes and inspections: Systems tested; </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%: Final touches and punch list: Minor adjustments; final inspections and approvals.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100% - Construction complete: Ready for handover and occupancy.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Filtered_By_Region/Region V/Region V_LMS.xlsx
+++ b/Filtered_By_Region/Region V/Region V_LMS.xlsx
@@ -32,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,14 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -435,4158 +447,4187 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
+    <col width="237" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="27" customWidth="1" min="16" max="16"/>
+    <col width="36" customWidth="1" min="17" max="17"/>
+    <col width="36" customWidth="1" min="18" max="18"/>
+    <col width="31" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="33" customWidth="1" min="22" max="22"/>
+    <col width="31" customWidth="1" min="23" max="23"/>
+    <col width="59" customWidth="1" min="24" max="24"/>
+    <col width="72" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>REGION</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Target Completion Date </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Actual Date of Completion</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Project ID</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>Contract ID</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Invitation to Bid</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Pre-Submission Conference</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Bid Opening</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Resolution to Award</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>Issuance of Notice to Proceed</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>Name of Contractor</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
-        <is>
-          <t>Status as of July 4, 2025</t>
+      <c r="Z1" s="4" t="inlineStr">
+        <is>
+          <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>112696</v>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Tampuhan ES</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>LIBMANAN</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="4" t="n">
+      <c r="K2" s="5" t="n">
         <v>8580284.065093178</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W2" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5" t="inlineStr">
         <is>
           <t>resolution to cancel due to time constraint for procurement activities</t>
         </is>
       </c>
-      <c r="Z2" s="4" t="n"/>
+      <c r="Z2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <v>113171</v>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>San Miguel Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>8140400.679802701</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="L3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="n"/>
+      <c r="N3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>113339</v>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Dugui San Isidro Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>VIRAC (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>8140400.679802701</v>
       </c>
-      <c r="L4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="L4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4" t="n"/>
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>113458</v>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Mapitogo Elementary School</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>BALUD</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>10351655.59515979</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>10298568.14</v>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
         <is>
           <t>3R3M Const. and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4" t="n"/>
+      <c r="Y5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>501259</v>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Malaya IS</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>LABO WEST</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SOLAR ENERGY AND WATER SYSTEMS AND SCHOOL FURNITURE AND FENCING AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>29291757.9847</v>
       </c>
-      <c r="L6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="L6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W6" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Z6" s="4" t="n"/>
+      <c r="Z6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>113033</v>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Bagong Sirang Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>SIRUMA</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR,SCHOOL FURNITURE,  WATER SANITATION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>10580022.83189747</v>
       </c>
-      <c r="L7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="4" t="n"/>
+      <c r="N7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>113107</v>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>San Rafael ES</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>TIGAON</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="5" t="n">
         <v>10240762.83189748</v>
       </c>
-      <c r="L8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W8" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="4" t="n"/>
+      <c r="N8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <v>112358</v>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>Santiago Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>BALATAN</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="5" t="n">
         <v>14849440.7976308</v>
       </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr"/>
-      <c r="Q9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="4" t="n"/>
+      <c r="O9" s="5" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr"/>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="5" t="n">
         <v>113214</v>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>Sabloyon Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>CARAMORAN</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="5" t="n">
         <v>10114683.146746</v>
       </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="inlineStr">
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>0.0505</v>
       </c>
-      <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="4" t="inlineStr"/>
-      <c r="Q10" s="4" t="inlineStr"/>
-      <c r="R10" s="4" t="inlineStr"/>
-      <c r="S10" s="4" t="inlineStr"/>
-      <c r="T10" s="4" t="inlineStr"/>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr"/>
+      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="R10" s="5" t="inlineStr"/>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr"/>
+      <c r="W10" s="5" t="inlineStr"/>
+      <c r="X10" s="5" t="inlineStr"/>
+      <c r="Y10" s="5" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
         </is>
       </c>
-      <c r="Z10" s="4" t="n"/>
+      <c r="Z10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="5" t="n">
         <v>113356</v>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>Buenavista ES</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>VIRAC (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <v>10114683.146746</v>
       </c>
-      <c r="L11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="inlineStr">
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
-      <c r="U11" s="4" t="inlineStr"/>
-      <c r="V11" s="4" t="inlineStr"/>
-      <c r="W11" s="4" t="inlineStr"/>
-      <c r="X11" s="4" t="inlineStr"/>
-      <c r="Y11" s="4" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr"/>
+      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="R11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr"/>
+      <c r="T11" s="5" t="inlineStr"/>
+      <c r="U11" s="5" t="inlineStr"/>
+      <c r="V11" s="5" t="inlineStr"/>
+      <c r="W11" s="5" t="inlineStr"/>
+      <c r="X11" s="5" t="inlineStr"/>
+      <c r="Y11" s="5" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
         </is>
       </c>
-      <c r="Z11" s="4" t="n"/>
+      <c r="Z11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>114142</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>Cristo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>DONSOL</t>
         </is>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="G12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="4" t="inlineStr">
+      <c r="J12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <v>7538498.756012579</v>
       </c>
-      <c r="L12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4" t="inlineStr">
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W12" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4" t="inlineStr">
+      <c r="N12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="inlineStr">
         <is>
           <t>Inaugurated (November)</t>
         </is>
       </c>
-      <c r="Z12" s="4" t="n"/>
+      <c r="Z12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="5" t="n">
         <v>114296</v>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>Malbog Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>MAGALLANES</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="G13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SCHOOL FURNITURE,WATER SANITATION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="5" t="n">
         <v>10174305.441249</v>
       </c>
-      <c r="L13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4" t="inlineStr">
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W13" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="4" t="n"/>
+      <c r="N13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="5" t="n">
         <v>302074</v>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Bato RDHS</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="4" t="inlineStr">
+      <c r="J14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="5" t="n">
         <v>13040244.7845</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="5" t="n">
         <v>17798245.81</v>
       </c>
-      <c r="M14" s="4" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5" t="n">
+      <c r="N14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="7" t="n">
         <v>45231</v>
       </c>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5" t="n">
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T14" s="5" t="n">
+      <c r="T14" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="U14" s="5" t="n">
+      <c r="U14" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="V14" s="5" t="n">
+      <c r="V14" s="7" t="n">
         <v>45093</v>
       </c>
-      <c r="W14" s="5" t="n">
+      <c r="W14" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="X14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="4" t="n"/>
+      <c r="X14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>302087</v>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>Dororian NHS</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="4" t="inlineStr">
+      <c r="J15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="5" t="n">
         <v>23006293.5345</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="5" t="n">
         <v>19137563.67</v>
       </c>
-      <c r="M15" s="4" t="inlineStr">
+      <c r="M15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5" t="n">
+      <c r="N15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" s="7" t="n">
         <v>44980</v>
       </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="n">
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5" t="n">
         <v>44743</v>
       </c>
-      <c r="S15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U15" s="5" t="n">
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U15" s="7" t="n">
         <v>44707</v>
       </c>
-      <c r="V15" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="5" t="n">
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W15" s="7" t="n">
         <v>44768</v>
       </c>
-      <c r="X15" s="4" t="inlineStr">
+      <c r="X15" s="5" t="inlineStr">
         <is>
           <t>Hi-Tone Construction &amp; Devt. Corp.</t>
         </is>
       </c>
-      <c r="Y15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="4" t="n"/>
+      <c r="Y15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>112269</v>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>Resettlement ES</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO RUIZ (IMELDA)</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="4" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF, SCHOOL FURNITURE, CONCRETE PATHWAY (WIDTH = 4.0m), PERIMETER FENCE 150.0m FRONTAGE (1 BAY = 3.0m) AND REPAIR OF 2CL BLSB TYPE 1</t>
         </is>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="5" t="n">
         <v>17976228.27</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="5" t="n">
         <v>17729608.63</v>
       </c>
-      <c r="M16" s="4" t="inlineStr">
+      <c r="M16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="n">
+      <c r="N16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7" t="n">
         <v>45241</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="7" t="n">
         <v>45348</v>
       </c>
-      <c r="Q16" s="4" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>INFRA02-05
 2023CN</t>
         </is>
       </c>
-      <c r="R16" s="4" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>INFRA02-05
 2023CN</t>
         </is>
       </c>
-      <c r="S16" s="5" t="n">
+      <c r="S16" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T16" s="5" t="n">
+      <c r="T16" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="U16" s="5" t="n">
+      <c r="U16" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="V16" s="5" t="n">
+      <c r="V16" s="7" t="n">
         <v>45093</v>
       </c>
-      <c r="W16" s="5" t="n">
+      <c r="W16" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="X16" s="4" t="inlineStr">
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>RidersCorner Construction &amp; Gen. Mdse.</t>
         </is>
       </c>
-      <c r="Y16" s="4" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z16" s="4" t="n"/>
+      <c r="Z16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>113214</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E17" s="5" t="inlineStr">
         <is>
           <t>Sabloyon Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>CARAMORAN</t>
         </is>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="4" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="5" t="n">
         <v>7587681.68</v>
       </c>
-      <c r="L17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4" t="inlineStr">
+      <c r="L17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W17" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="4" t="n"/>
+      <c r="N17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="5" t="n">
         <v>136922</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>Arriesgado Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="G18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="4" t="inlineStr">
+      <c r="J18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L18" s="4" t="n">
+      <c r="L18" s="5" t="n">
         <v>12631866.08</v>
       </c>
-      <c r="M18" s="4" t="inlineStr">
+      <c r="M18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="n">
+      <c r="N18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7" t="n">
         <v>45267</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="Q18" s="4" t="inlineStr">
+      <c r="Q18" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S18" s="5" t="n">
+      <c r="S18" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T18" s="5" t="n">
+      <c r="T18" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U18" s="5" t="n">
+      <c r="U18" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V18" s="5" t="n">
+      <c r="V18" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="5" t="n">
+      <c r="W18" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="X18" s="4" t="inlineStr">
+      <c r="X18" s="5" t="inlineStr">
         <is>
           <t>NJNY Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="4" t="n"/>
+      <c r="Y18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="5" t="n">
         <v>113662</v>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>Tabuk Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="4" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>MANDAON</t>
         </is>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="H19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="4" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L19" s="4" t="n">
+      <c r="L19" s="5" t="n">
         <v>12631638.76</v>
       </c>
-      <c r="M19" s="4" t="inlineStr">
+      <c r="M19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="5" t="n">
+      <c r="N19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7" t="n">
         <v>45263</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="Q19" s="4" t="inlineStr">
+      <c r="Q19" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S19" s="5" t="n">
+      <c r="S19" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T19" s="5" t="n">
+      <c r="T19" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U19" s="5" t="n">
+      <c r="U19" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V19" s="5" t="n">
+      <c r="V19" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W19" s="5" t="n">
+      <c r="W19" s="7" t="n">
         <v>45113</v>
       </c>
-      <c r="X19" s="4" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>EJ Cantoria Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="4" t="n"/>
+      <c r="Y19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="5" t="n">
         <v>501528</v>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>Tugbo Integrated School</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>MOBO</t>
         </is>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
+      <c r="J20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="5" t="n">
         <v>12632137.16</v>
       </c>
-      <c r="M20" s="4" t="inlineStr">
+      <c r="M20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5" t="n">
+      <c r="N20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="Q20" s="4" t="inlineStr">
+      <c r="Q20" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R20" s="4" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>2023-07-038</t>
         </is>
       </c>
-      <c r="S20" s="5" t="n">
+      <c r="S20" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T20" s="5" t="n">
+      <c r="T20" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U20" s="5" t="n">
+      <c r="U20" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V20" s="5" t="n">
+      <c r="V20" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W20" s="5" t="n">
+      <c r="W20" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X20" s="4" t="inlineStr">
+      <c r="X20" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="4" t="n"/>
+      <c r="Y20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="5" t="n">
         <v>501545</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E21" s="5" t="inlineStr">
         <is>
           <t>Madamba Integrated School</t>
         </is>
       </c>
-      <c r="F21" s="4" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>CATAINGAN</t>
         </is>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="4" t="inlineStr">
+      <c r="J21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="5" t="n">
         <v>14029531.76</v>
       </c>
-      <c r="L21" s="4" t="n">
+      <c r="L21" s="5" t="n">
         <v>13867265.99</v>
       </c>
-      <c r="M21" s="4" t="inlineStr">
+      <c r="M21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="5" t="n">
+      <c r="N21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7" t="n">
         <v>45262</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q21" s="4" t="inlineStr">
+      <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R21" s="4" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>2023-07-039</t>
         </is>
       </c>
-      <c r="S21" s="5" t="n">
+      <c r="S21" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T21" s="5" t="n">
+      <c r="T21" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U21" s="5" t="n">
+      <c r="U21" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V21" s="5" t="n">
+      <c r="V21" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W21" s="5" t="n">
+      <c r="W21" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="X21" s="4" t="inlineStr">
+      <c r="X21" s="5" t="inlineStr">
         <is>
           <t>3R3M Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="4" t="n"/>
+      <c r="Y21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="5" t="n">
         <v>113531</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>Calapayan Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="4" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>CAWAYAN</t>
         </is>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="4" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="5" t="n">
         <v>8597681.690000001</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="5" t="n">
         <v>8496949.85</v>
       </c>
-      <c r="M22" s="4" t="inlineStr">
+      <c r="M22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5" t="n">
+      <c r="N22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="7" t="n">
         <v>45272</v>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
+      <c r="Q22" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R22" s="4" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>2023-07-040</t>
         </is>
       </c>
-      <c r="S22" s="5" t="n">
+      <c r="S22" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T22" s="5" t="n">
+      <c r="T22" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U22" s="5" t="n">
+      <c r="U22" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V22" s="5" t="n">
+      <c r="V22" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W22" s="5" t="n">
+      <c r="W22" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X22" s="4" t="inlineStr">
+      <c r="X22" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="4" t="n"/>
+      <c r="Y22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="5" t="n">
         <v>302123</v>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E23" s="5" t="inlineStr">
         <is>
           <t>Buracan National High School</t>
         </is>
       </c>
-      <c r="F23" s="4" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>DIMASALANG</t>
         </is>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="H23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="4" t="inlineStr">
+      <c r="J23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="5" t="n">
         <v>13996557.55</v>
       </c>
-      <c r="L23" s="4" t="n">
+      <c r="L23" s="5" t="n">
         <v>13831624.51</v>
       </c>
-      <c r="M23" s="4" t="inlineStr">
+      <c r="M23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="5" t="n">
+      <c r="N23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q23" s="4" t="inlineStr">
+      <c r="Q23" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R23" s="4" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>2023-07-041</t>
         </is>
       </c>
-      <c r="S23" s="5" t="n">
+      <c r="S23" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T23" s="5" t="n">
+      <c r="T23" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U23" s="5" t="n">
+      <c r="U23" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V23" s="5" t="n">
+      <c r="V23" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W23" s="5" t="n">
+      <c r="W23" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X23" s="4" t="inlineStr">
+      <c r="X23" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="4" t="n"/>
+      <c r="Y23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="5" t="n">
         <v>501259</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>Malaya Integrated School</t>
         </is>
       </c>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>LABO</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="4" t="inlineStr">
+      <c r="J24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND RAIN WATER COLLECTOR TWO (2) SETS </t>
         </is>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="5" t="n">
         <v>17467038.05</v>
       </c>
-      <c r="L24" s="4" t="n">
+      <c r="L24" s="5" t="n">
         <v>10339297.77</v>
       </c>
-      <c r="M24" s="4" t="inlineStr">
+      <c r="M24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="5" t="n">
+      <c r="N24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7" t="n">
         <v>45637</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="7" t="n">
         <v>45697</v>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
+      <c r="Q24" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="R24" s="4" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S24" s="5" t="n">
+      <c r="S24" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="T24" s="5" t="n">
+      <c r="T24" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U24" s="5" t="n">
+      <c r="U24" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V24" s="5" t="n">
+      <c r="V24" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="W24" s="5" t="n">
+      <c r="W24" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="X24" s="4" t="inlineStr">
+      <c r="X24" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y24" s="4" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z24" s="4" t="n"/>
+      <c r="Z24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="5" t="n">
         <v>112308</v>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Mangcawayan Island Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="4" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>VINZONS</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4" t="n">
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="4" t="inlineStr">
+      <c r="J25" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND RAIN WATER COLLECTOR TWO (2) SETS - TRIPLE HAULING</t>
         </is>
       </c>
-      <c r="K25" s="4" t="n">
+      <c r="K25" s="5" t="n">
         <v>13898660.22</v>
       </c>
-      <c r="L25" s="4" t="n">
+      <c r="L25" s="5" t="n">
         <v>9599009.6</v>
       </c>
-      <c r="M25" s="4" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="n">
+      <c r="N25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="7" t="n">
         <v>45667</v>
       </c>
-      <c r="Q25" s="4" t="inlineStr">
+      <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="R25" s="4" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S25" s="5" t="n">
+      <c r="S25" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="T25" s="5" t="n">
+      <c r="T25" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U25" s="5" t="n">
+      <c r="U25" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V25" s="5" t="n">
+      <c r="V25" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="W25" s="5" t="n">
+      <c r="W25" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="X25" s="4" t="inlineStr">
+      <c r="X25" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y25" s="4" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">WITH RETIFICATION </t>
         </is>
       </c>
-      <c r="Z25" s="4" t="n"/>
+      <c r="Z25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="5" t="n">
         <v>300315</v>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>Salvacion High School</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>SIPOCOT</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4" t="n">
+      <c r="H26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J26" s="4" t="inlineStr">
+      <c r="J26" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS, 1 STOREY, 4 CLASSROOM SCHOOL BUILDING W/ 2 UNITS, 4 SEATER WATER AND SANITATION FACILITIES, 2 UNITS RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 2 UNITS, 1 STOREY, 4 CLASSROOM SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K26" s="4" t="n">
+      <c r="K26" s="5" t="n">
         <v>34039259.84</v>
       </c>
-      <c r="L26" s="4" t="n">
+      <c r="L26" s="5" t="n">
         <v>33361240.37</v>
       </c>
-      <c r="M26" s="4" t="inlineStr">
+      <c r="M26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="5" t="n">
+      <c r="N26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" s="7" t="n">
         <v>45634</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="P26" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="Q26" s="5" t="inlineStr">
         <is>
           <t>2024-05-043</t>
         </is>
       </c>
-      <c r="R26" s="4" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>2024-05-043</t>
         </is>
       </c>
-      <c r="S26" s="5" t="n">
+      <c r="S26" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T26" s="5" t="n">
+      <c r="T26" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U26" s="5" t="n">
+      <c r="U26" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V26" s="5" t="n">
+      <c r="V26" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="W26" s="5" t="n">
+      <c r="W26" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="X26" s="4" t="inlineStr">
+      <c r="X26" s="5" t="inlineStr">
         <is>
           <t>Honeyville Construction</t>
         </is>
       </c>
-      <c r="Y26" s="4" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>approved time extension</t>
         </is>
       </c>
-      <c r="Z26" s="4" t="n"/>
+      <c r="Z26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="5" t="n">
         <v>112696</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Tampuhan ES</t>
         </is>
       </c>
-      <c r="F27" s="4" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>LIBMANAN</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4" t="n">
+      <c r="H27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="4" t="inlineStr">
+      <c r="J27" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K27" s="4" t="n">
+      <c r="K27" s="5" t="n">
         <v>10803221.3</v>
       </c>
-      <c r="L27" s="4" t="n">
+      <c r="L27" s="5" t="n">
         <v>9474512.960000001</v>
       </c>
-      <c r="M27" s="4" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O27" s="5" t="n">
+      <c r="O27" s="7" t="n">
         <v>45591</v>
       </c>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr">
+      <c r="P27" s="5" t="inlineStr"/>
+      <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>2024-05-044</t>
         </is>
       </c>
-      <c r="R27" s="4" t="inlineStr">
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>2024-05-044</t>
         </is>
       </c>
-      <c r="S27" s="5" t="n">
+      <c r="S27" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T27" s="5" t="n">
+      <c r="T27" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U27" s="5" t="n">
+      <c r="U27" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V27" s="5" t="n">
+      <c r="V27" s="7" t="n">
         <v>45313</v>
       </c>
-      <c r="W27" s="5" t="n">
+      <c r="W27" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="X27" s="4" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>TGME Construction and Supply</t>
         </is>
       </c>
-      <c r="Y27" s="4" t="inlineStr"/>
-      <c r="Z27" s="4" t="n"/>
+      <c r="Y27" s="5" t="inlineStr"/>
+      <c r="Z27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="5" t="n">
         <v>112757</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>Barobaybay ES</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>MAGARAO</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4" t="n">
+      <c r="H28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
+      <c r="J28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K28" s="4" t="n">
+      <c r="K28" s="5" t="n">
         <v>10728585.06</v>
       </c>
-      <c r="L28" s="4" t="n">
+      <c r="L28" s="5" t="n">
         <v>10342846.08</v>
       </c>
-      <c r="M28" s="4" t="inlineStr">
+      <c r="M28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="5" t="n">
+      <c r="N28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="n">
         <v>45574</v>
       </c>
-      <c r="P28" s="4" t="inlineStr"/>
-      <c r="Q28" s="4" t="inlineStr">
+      <c r="P28" s="5" t="inlineStr"/>
+      <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>2024-05-045</t>
         </is>
       </c>
-      <c r="R28" s="4" t="inlineStr">
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>2024-05-045</t>
         </is>
       </c>
-      <c r="S28" s="5" t="n">
+      <c r="S28" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T28" s="5" t="n">
+      <c r="T28" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U28" s="5" t="n">
+      <c r="U28" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V28" s="5" t="n">
+      <c r="V28" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="W28" s="5" t="n">
+      <c r="W28" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="X28" s="4" t="inlineStr">
+      <c r="X28" s="5" t="inlineStr">
         <is>
           <t>TRDV Construction and Supply</t>
         </is>
       </c>
-      <c r="Y28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="4" t="n"/>
+      <c r="Y28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="5" t="n">
         <v>112556</v>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Oring ES</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>CARAMOAN</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="H29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="4" t="inlineStr">
+      <c r="J29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 2 UNITS, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="5" t="n">
         <v>22399589.68</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="5" t="n">
         <v>22130242.21</v>
       </c>
-      <c r="M29" s="4" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="5" t="n">
+      <c r="N29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="P29" s="4" t="inlineStr"/>
-      <c r="Q29" s="4" t="inlineStr">
+      <c r="P29" s="5" t="inlineStr"/>
+      <c r="Q29" s="5" t="inlineStr">
         <is>
           <t>2024-05-046</t>
         </is>
       </c>
-      <c r="R29" s="4" t="inlineStr">
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>2024-05-046</t>
         </is>
       </c>
-      <c r="S29" s="5" t="n">
+      <c r="S29" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T29" s="5" t="n">
+      <c r="T29" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U29" s="5" t="n">
+      <c r="U29" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V29" s="5" t="n">
+      <c r="V29" s="7" t="n">
         <v>45289</v>
       </c>
-      <c r="W29" s="5" t="n">
+      <c r="W29" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="X29" s="4" t="inlineStr">
+      <c r="X29" s="5" t="inlineStr">
         <is>
           <t>TGME Construction and Supply</t>
         </is>
       </c>
-      <c r="Y29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="4" t="n"/>
+      <c r="Y29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="5" t="n">
         <v>500468</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>Harrison Integrated School</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>GARCHITORENA</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="H30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="J30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="5" t="n">
         <v>11795242.42</v>
       </c>
-      <c r="L30" s="4" t="n">
+      <c r="L30" s="5" t="n">
         <v>11526923.04</v>
       </c>
-      <c r="M30" s="4" t="inlineStr">
+      <c r="M30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
+      <c r="N30" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O30" s="5" t="n">
+      <c r="O30" s="7" t="n">
         <v>45584</v>
       </c>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="4" t="inlineStr">
+      <c r="P30" s="5" t="inlineStr"/>
+      <c r="Q30" s="5" t="inlineStr">
         <is>
           <t>2024-05-047</t>
         </is>
       </c>
-      <c r="R30" s="4" t="inlineStr">
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>2024-05-047</t>
         </is>
       </c>
-      <c r="S30" s="5" t="n">
+      <c r="S30" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T30" s="5" t="n">
+      <c r="T30" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U30" s="5" t="n">
+      <c r="U30" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V30" s="5" t="n">
+      <c r="V30" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="W30" s="5" t="n">
+      <c r="W30" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="X30" s="4" t="inlineStr">
+      <c r="X30" s="5" t="inlineStr">
         <is>
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y30" s="4" t="inlineStr"/>
-      <c r="Z30" s="4" t="n"/>
+      <c r="Y30" s="5" t="inlineStr"/>
+      <c r="Z30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="5" t="n">
         <v>112324</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="5" t="inlineStr">
         <is>
           <t>Cristo Rey Elementary School</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>BAAO</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="H31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
+      <c r="J31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="5" t="n">
         <v>10792740.79</v>
       </c>
-      <c r="L31" s="4" t="n">
+      <c r="L31" s="5" t="n">
         <v>8646767.359999999</v>
       </c>
-      <c r="M31" s="4" t="inlineStr">
+      <c r="M31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
+      <c r="N31" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O31" s="5" t="n">
+      <c r="O31" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="P31" s="4" t="inlineStr"/>
-      <c r="Q31" s="4" t="inlineStr">
+      <c r="P31" s="5" t="inlineStr"/>
+      <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>2024-05-048</t>
         </is>
       </c>
-      <c r="R31" s="4" t="inlineStr">
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>2024-05-048</t>
         </is>
       </c>
-      <c r="S31" s="5" t="n">
+      <c r="S31" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T31" s="5" t="n">
+      <c r="T31" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U31" s="5" t="n">
+      <c r="U31" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V31" s="5" t="n">
+      <c r="V31" s="7" t="n">
         <v>45313</v>
       </c>
-      <c r="W31" s="5" t="n">
+      <c r="W31" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="X31" s="4" t="inlineStr">
+      <c r="X31" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y31" s="4" t="inlineStr"/>
-      <c r="Z31" s="4" t="n"/>
+      <c r="Y31" s="5" t="inlineStr"/>
+      <c r="Z31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="5" t="n">
         <v>174016</v>
       </c>
-      <c r="E32" s="4" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>Pananaogan Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="4" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="n">
+      <c r="H32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
+      <c r="J32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L32" s="4" t="n">
+      <c r="L32" s="5" t="n">
         <v>16742770.61</v>
       </c>
-      <c r="M32" s="4" t="inlineStr">
+      <c r="M32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="n">
+      <c r="N32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V32" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W32" s="5" t="n">
+      <c r="P32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W32" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X32" s="4" t="inlineStr">
+      <c r="X32" s="5" t="inlineStr">
         <is>
           <t>STEVEN CONSTRUCTION&amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="4" t="n"/>
+      <c r="Y32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="5" t="n">
         <v>113296</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
+      <c r="E33" s="5" t="inlineStr">
         <is>
           <t>Siay Elementery School</t>
         </is>
       </c>
-      <c r="F33" s="4" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="n">
+      <c r="H33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J33" s="4" t="inlineStr">
+      <c r="J33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY THREE (3) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="5" t="n">
         <v>17637171.72</v>
       </c>
-      <c r="L33" s="4" t="n">
+      <c r="L33" s="5" t="n">
         <v>17186395.36</v>
       </c>
-      <c r="M33" s="4" t="inlineStr">
+      <c r="M33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
+      <c r="N33" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O33" s="5" t="n">
+      <c r="O33" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="T33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="U33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="V33" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W33" s="5" t="n">
+      <c r="P33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="T33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="U33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="W33" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X33" s="4" t="inlineStr">
+      <c r="X33" s="5" t="inlineStr">
         <is>
           <t>NGS CONSTRUCTION&amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="4" t="n"/>
+      <c r="Y33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="5" t="n">
         <v>113866</v>
       </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Daplian ES</t>
         </is>
       </c>
-      <c r="F34" s="4" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="H34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="4" t="inlineStr">
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="5" t="n">
         <v>12273116.16</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="5" t="n">
         <v>12130990.29</v>
       </c>
-      <c r="M34" s="4" t="inlineStr">
+      <c r="M34" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
+      <c r="N34" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O34" s="5" t="n">
+      <c r="O34" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P34" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q34" s="4" t="inlineStr">
+      <c r="P34" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q34" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R34" s="4" t="inlineStr">
+      <c r="R34" s="5" t="inlineStr">
         <is>
           <t>2024-026</t>
         </is>
       </c>
-      <c r="S34" s="5" t="n">
+      <c r="S34" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T34" s="5" t="n">
+      <c r="T34" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U34" s="5" t="n">
+      <c r="U34" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V34" s="5" t="n">
+      <c r="V34" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W34" s="5" t="n">
+      <c r="W34" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X34" s="4" t="inlineStr">
+      <c r="X34" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="4" t="n"/>
+      <c r="Y34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="5" t="n">
         <v>113893</v>
       </c>
-      <c r="E35" s="4" t="inlineStr">
+      <c r="E35" s="5" t="inlineStr">
         <is>
           <t>Jagna-an ES</t>
         </is>
       </c>
-      <c r="F35" s="4" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="H35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="4" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="5" t="n">
         <v>12273116.16</v>
       </c>
-      <c r="L35" s="4" t="n">
+      <c r="L35" s="5" t="n">
         <v>12131339.29</v>
       </c>
-      <c r="M35" s="4" t="inlineStr">
+      <c r="M35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
+      <c r="N35" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O35" s="5" t="n">
+      <c r="O35" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R35" s="4" t="inlineStr">
+      <c r="R35" s="5" t="inlineStr">
         <is>
           <t>2024-027</t>
         </is>
       </c>
-      <c r="S35" s="5" t="n">
+      <c r="S35" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T35" s="5" t="n">
+      <c r="T35" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U35" s="5" t="n">
+      <c r="U35" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V35" s="5" t="n">
+      <c r="V35" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W35" s="5" t="n">
+      <c r="W35" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X35" s="4" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="4" t="n"/>
+      <c r="Y35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="5" t="n">
         <v>113896</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>Mabini Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="4" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="H36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="4" t="inlineStr">
+      <c r="J36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="5" t="n">
         <v>11598060.61</v>
       </c>
-      <c r="L36" s="4" t="n">
+      <c r="L36" s="5" t="n">
         <v>11468418.82</v>
       </c>
-      <c r="M36" s="4" t="inlineStr">
+      <c r="M36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
+      <c r="N36" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O36" s="5" t="n">
+      <c r="O36" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q36" s="4" t="inlineStr">
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q36" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-09-003</t>
         </is>
       </c>
-      <c r="R36" s="4" t="inlineStr">
+      <c r="R36" s="5" t="inlineStr">
         <is>
           <t>2024-021</t>
         </is>
       </c>
-      <c r="S36" s="5" t="n">
+      <c r="S36" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="T36" s="5" t="n">
+      <c r="T36" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="U36" s="5" t="n">
+      <c r="U36" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="V36" s="5" t="n">
+      <c r="V36" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="W36" s="5" t="n">
+      <c r="W36" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X36" s="4" t="inlineStr">
+      <c r="X36" s="5" t="inlineStr">
         <is>
           <t>SMDF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="4" t="n"/>
+      <c r="Y36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n">
+      <c r="D37" s="5" t="n">
         <v>113898</v>
       </c>
-      <c r="E37" s="4" t="inlineStr">
+      <c r="E37" s="5" t="inlineStr">
         <is>
           <t>Roosevelt Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="4" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="H37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J37" s="4" t="inlineStr">
+      <c r="J37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="5" t="n">
         <v>12015834.81</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="5" t="n">
         <v>11839039.3</v>
       </c>
-      <c r="M37" s="4" t="inlineStr">
+      <c r="M37" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
+      <c r="N37" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O37" s="5" t="n">
+      <c r="O37" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P37" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q37" s="4" t="inlineStr">
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R37" s="4" t="inlineStr">
+      <c r="R37" s="5" t="inlineStr">
         <is>
           <t>2024-028</t>
         </is>
       </c>
-      <c r="S37" s="5" t="n">
+      <c r="S37" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T37" s="5" t="n">
+      <c r="T37" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="V37" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="W37" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X37" s="4" t="inlineStr">
+      <c r="X37" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="4" t="n"/>
+      <c r="Y37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n">
+      <c r="D38" s="5" t="n">
         <v>113902</v>
       </c>
-      <c r="E38" s="4" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>Tutuban Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="4" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="H38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J38" s="4" t="inlineStr">
+      <c r="J38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="5" t="n">
         <v>11598060.61</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="5" t="n">
         <v>11469699.82</v>
       </c>
-      <c r="M38" s="4" t="inlineStr">
+      <c r="M38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
+      <c r="N38" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O38" s="5" t="n">
+      <c r="O38" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q38" s="4" t="inlineStr">
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q38" s="5" t="inlineStr">
         <is>
           <t>INFRA 2024-09-003</t>
         </is>
       </c>
-      <c r="R38" s="4" t="inlineStr">
+      <c r="R38" s="5" t="inlineStr">
         <is>
           <t>2024-022</t>
         </is>
       </c>
-      <c r="S38" s="5" t="n">
+      <c r="S38" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="T38" s="5" t="n">
+      <c r="T38" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="U38" s="5" t="n">
+      <c r="U38" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="V38" s="5" t="n">
+      <c r="V38" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="W38" s="5" t="n">
+      <c r="W38" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X38" s="4" t="inlineStr">
+      <c r="X38" s="5" t="inlineStr">
         <is>
           <t>SMDF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="4" t="n"/>
+      <c r="Y38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Masbate City</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n">
+      <c r="D39" s="5" t="n">
         <v>500393</v>
       </c>
-      <c r="E39" s="4" t="inlineStr">
+      <c r="E39" s="5" t="inlineStr">
         <is>
           <t>Alejandro Delos Reyes Integrated School</t>
         </is>
       </c>
-      <c r="F39" s="4" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>CITY OF MASBATE (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="H39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J39" s="4" t="inlineStr">
+      <c r="J39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="5" t="n">
         <v>20202020.2</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="5" t="n">
         <v>19798704.92</v>
       </c>
-      <c r="M39" s="4" t="inlineStr">
+      <c r="M39" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5" t="n">
+      <c r="N39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7" t="n">
         <v>45767</v>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="P39" s="7" t="n">
         <v>45765</v>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
+      <c r="Q39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - RV - MASBATE CITY - 001</t>
         </is>
       </c>
-      <c r="R39" s="4" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - RV - MASBATE CITY - 001</t>
         </is>
       </c>
-      <c r="S39" s="5" t="n">
+      <c r="S39" s="7" t="n">
         <v>45358</v>
       </c>
-      <c r="T39" s="5" t="n">
+      <c r="T39" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="U39" s="5" t="n">
+      <c r="U39" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="V39" s="5" t="n">
+      <c r="V39" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="W39" s="5" t="n">
+      <c r="W39" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="X39" s="4" t="inlineStr">
+      <c r="X39" s="5" t="inlineStr">
         <is>
           <t>GINA'S CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="4" t="n"/>
+      <c r="Y39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n">
+      <c r="D40" s="5" t="n">
         <v>114136</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino Elementary School</t>
         </is>
       </c>
-      <c r="F40" s="4" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>CASTILLA</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="H40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J40" s="4" t="inlineStr">
+      <c r="J40" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="5" t="n">
         <v>18030049.99</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="5" t="n">
         <v>16059049.82</v>
       </c>
-      <c r="M40" s="4" t="inlineStr">
+      <c r="M40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
+      <c r="N40" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O40" s="5" t="n">
+      <c r="O40" s="7" t="n">
         <v>45879</v>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q40" s="4" t="inlineStr">
+      <c r="P40" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q40" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="R40" s="4" t="inlineStr">
+      <c r="R40" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S40" s="5" t="n">
+      <c r="S40" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="T40" s="5" t="n">
+      <c r="T40" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="U40" s="5" t="n">
+      <c r="U40" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V40" s="5" t="n">
+      <c r="V40" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="W40" s="5" t="n">
+      <c r="W40" s="7" t="n">
         <v>45730</v>
       </c>
-      <c r="X40" s="4" t="inlineStr">
+      <c r="X40" s="5" t="inlineStr">
         <is>
           <t>144 Cubits Builders and Supply</t>
         </is>
       </c>
-      <c r="Y40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="4" t="n"/>
+      <c r="Y40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n">
+      <c r="D41" s="5" t="n">
         <v>302769</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
+      <c r="E41" s="5" t="inlineStr">
         <is>
           <t>Sablayan High School</t>
         </is>
       </c>
-      <c r="F41" s="4" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>JUBAN</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4" t="n">
+      <c r="H41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J41" s="4" t="inlineStr">
+      <c r="J41" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, SOLAR PV ENERGY SYSTEM, SLOPE PROTECTION PROTECTION</t>
         </is>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="5" t="n">
         <v>20447749.05</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="5" t="n">
         <v>18206941.63</v>
       </c>
-      <c r="M41" s="4" t="inlineStr">
+      <c r="M41" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N41" s="4" t="n">
+      <c r="N41" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O41" s="5" t="n">
+      <c r="O41" s="7" t="n">
         <v>45909</v>
       </c>
-      <c r="P41" s="4" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q41" s="4" t="inlineStr">
+      <c r="P41" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Q41" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="R41" s="4" t="inlineStr">
+      <c r="R41" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S41" s="5" t="n">
+      <c r="S41" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="T41" s="5" t="n">
+      <c r="T41" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="U41" s="5" t="n">
+      <c r="U41" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V41" s="5" t="n">
+      <c r="V41" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="W41" s="5" t="n">
+      <c r="W41" s="7" t="n">
         <v>45730</v>
       </c>
-      <c r="X41" s="4" t="inlineStr">
+      <c r="X41" s="5" t="inlineStr">
         <is>
           <t>144 Cubits Builders and Supply</t>
         </is>
       </c>
-      <c r="Y41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="4" t="n"/>
+      <c r="Y41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Filtered_By_Region/Region V/Region V_LMS.xlsx
+++ b/Filtered_By_Region/Region V/Region V_LMS.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">

--- a/Filtered_By_Region/Region V/Region V_LMS.xlsx
+++ b/Filtered_By_Region/Region V/Region V_LMS.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -453,243 +453,247 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="41" customWidth="1" min="5" max="5"/>
-    <col width="27" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="237" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="41" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="237" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
     <col width="26" customWidth="1" min="15" max="15"/>
-    <col width="27" customWidth="1" min="16" max="16"/>
-    <col width="36" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
     <col width="36" customWidth="1" min="18" max="18"/>
-    <col width="31" customWidth="1" min="19" max="19"/>
-    <col width="27" customWidth="1" min="20" max="20"/>
-    <col width="21" customWidth="1" min="21" max="21"/>
-    <col width="33" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="59" customWidth="1" min="24" max="24"/>
-    <col width="72" customWidth="1" min="25" max="25"/>
-    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="36" customWidth="1" min="19" max="19"/>
+    <col width="31" customWidth="1" min="20" max="20"/>
+    <col width="27" customWidth="1" min="21" max="21"/>
+    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="33" customWidth="1" min="23" max="23"/>
+    <col width="31" customWidth="1" min="24" max="24"/>
+    <col width="59" customWidth="1" min="25" max="25"/>
+    <col width="72" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>INDEX (DO NOT MODIFY)</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>CATEGORY</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
+          <t>REGION</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>DIVISION</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL ID</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>SCHOOL NAME</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>MUNICIPALITY</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>NO. OF SITES</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>NO. OF CL</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SCOPE OF WORK</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>PROJECT ALLOCATION</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>CONTRACT AMOUNT</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLETION</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Target Completion Date </t>
-        </is>
-      </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Actual Date of Completion</t>
+          <t xml:space="preserve"> TARGET COMPLETION DATE </t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Project ID</t>
+          <t>ACTUAL DATE OF COMPLETION</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>Contract ID</t>
+          <t>PROJECT ID</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Invitation to Bid</t>
+          <t>CONTRACT ID</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>Pre-Submission Conference</t>
+          <t>ISSUANCE OF INVITATION TO BID</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Bid Opening</t>
+          <t>PRE-SUBMISSION CONFERENCE</t>
         </is>
       </c>
       <c r="V1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Resolution to Award</t>
+          <t>BID OPENING</t>
         </is>
       </c>
       <c r="W1" s="3" t="inlineStr">
         <is>
-          <t>Issuance of Notice to Proceed</t>
+          <t>ISSUANCE OF RESOLUTION TO AWARD</t>
         </is>
       </c>
       <c r="X1" s="3" t="inlineStr">
         <is>
-          <t>Name of Contractor</t>
+          <t>ISSUANCE OF NOTICE TO PROCEED</t>
         </is>
       </c>
       <c r="Y1" s="3" t="inlineStr">
         <is>
-          <t>Other Remarks</t>
-        </is>
-      </c>
-      <c r="Z1" s="4" t="inlineStr">
+          <t>NAME OF CONTRACTOR</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>OTHER REMARKS</t>
+        </is>
+      </c>
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>Status as of July 11, 2025</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
+      <c r="A2" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="E2" s="5" t="n">
         <v>112696</v>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Tampuhan ES</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>LIBMANAN</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="L2" s="5" t="n">
         <v>8580284.065093178</v>
       </c>
-      <c r="L2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="inlineStr">
+      <c r="M2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>Reverted</t>
         </is>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="P2" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q2" s="5" t="n">
-        <v>0</v>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R2" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S2" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T2" s="5" t="inlineStr">
         <is>
@@ -711,93 +715,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5" t="inlineStr">
         <is>
           <t>resolution to cancel due to time constraint for procurement activities</t>
         </is>
       </c>
-      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="E3" s="5" t="n">
         <v>113171</v>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>San Miguel Elementary School</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>BARAS</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5" t="n">
         <v>8140400.679802701</v>
       </c>
-      <c r="L3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O3" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P3" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="n">
-        <v>0</v>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S3" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="5" t="inlineStr">
         <is>
@@ -819,91 +826,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X3" s="5" t="n">
-        <v>0</v>
+      <c r="X3" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z3" s="6" t="n"/>
+      <c r="Z3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>113339</v>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>Dugui San Isidro Elementary School</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>VIRAC (Capital)</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, PERIMETER FENCE (1 BAY = 3.0m), SOLAR PV ENERGY SYSTEM, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="L4" s="5" t="n">
         <v>8140400.679802701</v>
       </c>
-      <c r="L4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="inlineStr">
+      <c r="M4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O4" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P4" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q4" s="5" t="n">
-        <v>0</v>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S4" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="inlineStr">
         <is>
@@ -925,91 +935,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X4" s="5" t="n">
-        <v>0</v>
+      <c r="X4" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z4" s="6" t="n"/>
+      <c r="Z4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>LMS 2020</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>113458</v>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Mapitogo Elementary School</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>BALUD</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="L5" s="5" t="n">
         <v>10351655.59515979</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="M5" s="5" t="n">
         <v>10298568.14</v>
       </c>
-      <c r="M5" s="5" t="inlineStr">
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O5" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n">
-        <v>0</v>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S5" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T5" s="5" t="inlineStr">
         <is>
@@ -1033,91 +1046,94 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
           <t>3R3M Const. and Supply</t>
         </is>
       </c>
-      <c r="Y5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="n"/>
+      <c r="Z5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
         <v>501259</v>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Malaya IS</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>LABO WEST</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="K6" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITHOUT TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SOLAR ENERGY AND WATER SYSTEMS AND SCHOOL FURNITURE AND FENCING AND SLOPE PROTECTION</t>
         </is>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="L6" s="5" t="n">
         <v>29291757.9847</v>
       </c>
-      <c r="L6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
+      <c r="M6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
         <is>
           <t>TERMINATED</t>
         </is>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="O6" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="n">
-        <v>0</v>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S6" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T6" s="5" t="inlineStr">
         <is>
@@ -1139,93 +1155,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="5" t="inlineStr">
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
         <is>
           <t>CENTRAL OFFICE IMPLEMENTED</t>
         </is>
       </c>
-      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
         <v>113033</v>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Bagong Sirang Elementary School</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>SIRUMA</t>
         </is>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR,SCHOOL FURNITURE,  WATER SANITATION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="L7" s="5" t="n">
         <v>10580022.83189747</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O7" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n">
-        <v>0</v>
+      <c r="Q7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S7" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="5" t="inlineStr">
         <is>
@@ -1247,91 +1266,94 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X7" s="5" t="n">
-        <v>0</v>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z7" s="6" t="n"/>
+      <c r="Z7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
         <v>113107</v>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>San Rafael ES</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>TIGAON</t>
         </is>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="H8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="K8" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="L8" s="5" t="n">
         <v>10240762.83189748</v>
       </c>
-      <c r="L8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="inlineStr">
+      <c r="M8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O8" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P8" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S8" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="5" t="inlineStr">
         <is>
@@ -1353,83 +1375,86 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X8" s="5" t="n">
-        <v>0</v>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y8" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z8" s="6" t="n"/>
+      <c r="Z8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
         <v>112358</v>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Santiago Elementary School</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>BALATAN</t>
         </is>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="H9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="K9" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF TWO (2) UNITS ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="L9" s="5" t="n">
         <v>14849440.7976308</v>
       </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O9" s="5" t="inlineStr"/>
       <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q9" s="5" t="inlineStr"/>
       <c r="R9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T9" s="5" t="inlineStr">
         <is>
@@ -1451,72 +1476,79 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X9" s="5" t="n">
-        <v>0</v>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="6" t="n"/>
+      <c r="Z9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
         <v>113214</v>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Sabloyon Elementary School</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>CARAMORAN</t>
         </is>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="L10" s="5" t="n">
         <v>10114683.146746</v>
       </c>
-      <c r="L10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>0.0505</v>
       </c>
-      <c r="O10" s="5" t="inlineStr"/>
       <c r="P10" s="5" t="inlineStr"/>
       <c r="Q10" s="5" t="inlineStr"/>
       <c r="R10" s="5" t="inlineStr"/>
@@ -1526,71 +1558,74 @@
       <c r="V10" s="5" t="inlineStr"/>
       <c r="W10" s="5" t="inlineStr"/>
       <c r="X10" s="5" t="inlineStr"/>
-      <c r="Y10" s="5" t="inlineStr">
+      <c r="Y10" s="5" t="inlineStr"/>
+      <c r="Z10" s="5" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
         </is>
       </c>
-      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
         <v>113356</v>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Buenavista ES</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>VIRAC (Capital)</t>
         </is>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR, PERIMETER FENCE (1 BAY = 3.0m)</t>
         </is>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="L11" s="5" t="n">
         <v>10114683.146746</v>
       </c>
-      <c r="L11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>terminated</t>
         </is>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="O11" s="5" t="inlineStr"/>
       <c r="P11" s="5" t="inlineStr"/>
       <c r="Q11" s="5" t="inlineStr"/>
       <c r="R11" s="5" t="inlineStr"/>
@@ -1600,90 +1635,89 @@
       <c r="V11" s="5" t="inlineStr"/>
       <c r="W11" s="5" t="inlineStr"/>
       <c r="X11" s="5" t="inlineStr"/>
-      <c r="Y11" s="5" t="inlineStr">
+      <c r="Y11" s="5" t="inlineStr"/>
+      <c r="Z11" s="5" t="inlineStr">
         <is>
           <t>FOR TERMINATION</t>
         </is>
       </c>
-      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="D12" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
         <v>114142</v>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Cristo Elementary School</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>DONSOL</t>
         </is>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="5" t="inlineStr">
+      <c r="K12" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR AND SCHOOL FURNITURE</t>
         </is>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="L12" s="5" t="n">
         <v>7538498.756012579</v>
       </c>
-      <c r="L12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
+      <c r="M12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O12" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P12" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q12" s="5" t="n">
-        <v>0</v>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S12" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="5" t="inlineStr">
         <is>
@@ -1705,93 +1739,96 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="5" t="inlineStr">
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
         <is>
           <t>Inaugurated (November)</t>
         </is>
       </c>
-      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>LMS 2021</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
         <v>114296</v>
       </c>
-      <c r="E13" s="5" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Malbog Elementary School</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>MAGALLANES</t>
         </is>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="K13" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF RAINWATER COLLECTOR,SCHOOL FURNITURE,WATER SANITATION AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="L13" s="5" t="n">
         <v>10174305.441249</v>
       </c>
-      <c r="L13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
+      <c r="M13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O13" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P13" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="n">
-        <v>0</v>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S13" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T13" s="5" t="inlineStr">
         <is>
@@ -1813,389 +1850,401 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X13" s="5" t="n">
-        <v>0</v>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z13" s="6" t="n"/>
+      <c r="Z13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="5" t="n">
+        <v>244</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
         <v>302074</v>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Bato RDHS</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="5" t="inlineStr">
+      <c r="K14" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="L14" s="5" t="n">
         <v>13040244.7845</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="M14" s="5" t="n">
         <v>17798245.81</v>
       </c>
-      <c r="M14" s="5" t="inlineStr">
+      <c r="N14" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <v>45231</v>
       </c>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>0</v>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="U14" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="V14" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="V14" s="7" t="n">
+      <c r="W14" s="7" t="n">
         <v>45093</v>
       </c>
-      <c r="W14" s="7" t="n">
+      <c r="X14" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="X14" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z14" s="6" t="n"/>
+      <c r="Z14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="5" t="n">
+        <v>245</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>LMS 2022</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
         <v>302087</v>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Dororian NHS</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>GIGMOTO</t>
         </is>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="inlineStr">
+      <c r="K15" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE, AND WATER SYSTEM</t>
         </is>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="L15" s="5" t="n">
         <v>23006293.5345</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="M15" s="5" t="n">
         <v>19137563.67</v>
       </c>
-      <c r="M15" s="5" t="inlineStr">
+      <c r="N15" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7" t="n">
         <v>44980</v>
       </c>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>0</v>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5" t="n">
         <v>44743</v>
       </c>
-      <c r="S15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="V15" s="7" t="n">
         <v>44707</v>
       </c>
-      <c r="V15" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="W15" s="7" t="n">
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X15" s="7" t="n">
         <v>44768</v>
       </c>
-      <c r="X15" s="5" t="inlineStr">
+      <c r="Y15" s="5" t="inlineStr">
         <is>
           <t>Hi-Tone Construction &amp; Devt. Corp.</t>
         </is>
       </c>
-      <c r="Y15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6" t="n"/>
+      <c r="Z15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="5" t="n">
+        <v>326</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
         <v>112269</v>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Resettlement ES</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>SAN LORENZO RUIZ (IMELDA)</t>
         </is>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="H16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF, SCHOOL FURNITURE, CONCRETE PATHWAY (WIDTH = 4.0m), PERIMETER FENCE 150.0m FRONTAGE (1 BAY = 3.0m) AND REPAIR OF 2CL BLSB TYPE 1</t>
         </is>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="L16" s="5" t="n">
         <v>17976228.27</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="M16" s="5" t="n">
         <v>17729608.63</v>
       </c>
-      <c r="M16" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <v>45241</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="Q16" s="7" t="n">
         <v>45348</v>
       </c>
-      <c r="Q16" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>INFRA02-05
 2023CN</t>
         </is>
       </c>
-      <c r="R16" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>INFRA02-05
 2023CN</t>
         </is>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="T16" s="7" t="n">
         <v>45054</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="U16" s="7" t="n">
         <v>45061</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="V16" s="7" t="n">
         <v>45082</v>
       </c>
-      <c r="V16" s="7" t="n">
+      <c r="W16" s="7" t="n">
         <v>45093</v>
       </c>
-      <c r="W16" s="7" t="n">
+      <c r="X16" s="7" t="n">
         <v>45106</v>
       </c>
-      <c r="X16" s="5" t="inlineStr">
+      <c r="Y16" s="5" t="inlineStr">
         <is>
           <t>RidersCorner Construction &amp; Gen. Mdse.</t>
         </is>
       </c>
-      <c r="Y16" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z16" s="6" t="n"/>
+      <c r="AA16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="5" t="n">
+        <v>327</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="D17" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
         <v>113214</v>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>Sabloyon Elementary School</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>CARAMORAN</t>
         </is>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>0</v>
-      </c>
       <c r="H17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="K17" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="L17" s="5" t="n">
         <v>7587681.68</v>
       </c>
-      <c r="L17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
+      <c r="M17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="O17" s="5" t="n">
+        <v>1</v>
       </c>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="n">
-        <v>0</v>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S17" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="5" t="inlineStr">
         <is>
@@ -2217,1469 +2266,1514 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="X17" s="5" t="n">
-        <v>0</v>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="Y17" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Z17" s="6" t="n"/>
+      <c r="Z17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="5" t="n">
+        <v>328</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
         <v>136922</v>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>Arriesgado Elementary School</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="G18" s="5" t="inlineStr">
         <is>
           <t>CLAVERIA</t>
         </is>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
+      <c r="K18" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="L18" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="M18" s="5" t="n">
         <v>12631866.08</v>
       </c>
-      <c r="M18" s="5" t="inlineStr">
+      <c r="N18" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <v>45267</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="Q18" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
+      <c r="R18" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
+      <c r="S18" s="5" t="inlineStr">
         <is>
           <t>2023-07-001</t>
         </is>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="T18" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="U18" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="V18" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V18" s="7" t="n">
+      <c r="W18" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W18" s="7" t="n">
+      <c r="X18" s="7" t="n">
         <v>45117</v>
       </c>
-      <c r="X18" s="5" t="inlineStr">
+      <c r="Y18" s="5" t="inlineStr">
         <is>
           <t>NJNY Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6" t="n"/>
+      <c r="Z18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="5" t="n">
+        <v>329</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
         <v>113662</v>
       </c>
-      <c r="E19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>Tabuk Elementary School</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>MANDAON</t>
         </is>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="H19" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J19" s="5" t="inlineStr">
+      <c r="K19" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="L19" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="M19" s="5" t="n">
         <v>12631638.76</v>
       </c>
-      <c r="M19" s="5" t="inlineStr">
+      <c r="N19" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <v>45263</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="Q19" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="Q19" s="5" t="inlineStr">
+      <c r="R19" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
+      <c r="S19" s="5" t="inlineStr">
         <is>
           <t>2023-07-002</t>
         </is>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="T19" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="U19" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U19" s="7" t="n">
+      <c r="V19" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V19" s="7" t="n">
+      <c r="W19" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W19" s="7" t="n">
+      <c r="X19" s="7" t="n">
         <v>45113</v>
       </c>
-      <c r="X19" s="5" t="inlineStr">
+      <c r="Y19" s="5" t="inlineStr">
         <is>
           <t>EJ Cantoria Const. &amp; Supply</t>
         </is>
       </c>
-      <c r="Y19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6" t="n"/>
+      <c r="Z19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="5" t="n">
+        <v>330</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
         <v>501528</v>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>Tugbo Integrated School</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="G20" s="5" t="inlineStr">
         <is>
           <t>MOBO</t>
         </is>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="H20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
+      <c r="K20" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="L20" s="5" t="n">
         <v>12784616.01</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="M20" s="5" t="n">
         <v>12632137.16</v>
       </c>
-      <c r="M20" s="5" t="inlineStr">
+      <c r="N20" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="Q20" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="Q20" s="5" t="inlineStr">
+      <c r="R20" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R20" s="5" t="inlineStr">
+      <c r="S20" s="5" t="inlineStr">
         <is>
           <t>2023-07-038</t>
         </is>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="T20" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="U20" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U20" s="7" t="n">
+      <c r="V20" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V20" s="7" t="n">
+      <c r="W20" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W20" s="7" t="n">
+      <c r="X20" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X20" s="5" t="inlineStr">
+      <c r="Y20" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="6" t="n"/>
+      <c r="Z20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="5" t="n">
+        <v>331</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
         <v>501545</v>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>Madamba Integrated School</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>CATAINGAN</t>
         </is>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="H21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="5" t="inlineStr">
+      <c r="K21" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="L21" s="5" t="n">
         <v>14029531.76</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="M21" s="5" t="n">
         <v>13867265.99</v>
       </c>
-      <c r="M21" s="5" t="inlineStr">
+      <c r="N21" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <v>45262</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="Q21" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q21" s="5" t="inlineStr">
+      <c r="R21" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R21" s="5" t="inlineStr">
+      <c r="S21" s="5" t="inlineStr">
         <is>
           <t>2023-07-039</t>
         </is>
       </c>
-      <c r="S21" s="7" t="n">
+      <c r="T21" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="U21" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U21" s="7" t="n">
+      <c r="V21" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V21" s="7" t="n">
+      <c r="W21" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W21" s="7" t="n">
+      <c r="X21" s="7" t="n">
         <v>45112</v>
       </c>
-      <c r="X21" s="5" t="inlineStr">
+      <c r="Y21" s="5" t="inlineStr">
         <is>
           <t>3R3M Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6" t="n"/>
+      <c r="Z21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="5" t="n">
+        <v>332</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="D22" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
         <v>113531</v>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>Calapayan Elementary School</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>CAWAYAN</t>
         </is>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J22" s="5" t="inlineStr">
+      <c r="K22" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - TWO (2) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="L22" s="5" t="n">
         <v>8597681.690000001</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="M22" s="5" t="n">
         <v>8496949.85</v>
       </c>
-      <c r="M22" s="5" t="inlineStr">
+      <c r="N22" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7" t="n">
         <v>45270</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="Q22" s="7" t="n">
         <v>45272</v>
       </c>
-      <c r="Q22" s="5" t="inlineStr">
+      <c r="R22" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R22" s="5" t="inlineStr">
+      <c r="S22" s="5" t="inlineStr">
         <is>
           <t>2023-07-040</t>
         </is>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="T22" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="U22" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U22" s="7" t="n">
+      <c r="V22" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V22" s="7" t="n">
+      <c r="W22" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W22" s="7" t="n">
+      <c r="X22" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X22" s="5" t="inlineStr">
+      <c r="Y22" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6" t="n"/>
+      <c r="Z22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
+      <c r="A23" s="5" t="n">
+        <v>333</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>LMS 2023</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="D23" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
         <v>302123</v>
       </c>
-      <c r="E23" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>Buracan National High School</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>DIMASALANG</t>
         </is>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="H23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="K23" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SANITATION AND WATER SYSTEM WITH HAULING COST</t>
         </is>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="L23" s="5" t="n">
         <v>13996557.55</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="M23" s="5" t="n">
         <v>13831624.51</v>
       </c>
-      <c r="M23" s="5" t="inlineStr">
+      <c r="N23" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7" t="n">
         <v>45636</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="Q23" s="7" t="n">
         <v>45306</v>
       </c>
-      <c r="Q23" s="5" t="inlineStr">
+      <c r="R23" s="5" t="inlineStr">
         <is>
           <t>INFRA 2023-05-002</t>
         </is>
       </c>
-      <c r="R23" s="5" t="inlineStr">
+      <c r="S23" s="5" t="inlineStr">
         <is>
           <t>2023-07-041</t>
         </is>
       </c>
-      <c r="S23" s="7" t="n">
+      <c r="T23" s="7" t="n">
         <v>45057</v>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="U23" s="7" t="n">
         <v>45065</v>
       </c>
-      <c r="U23" s="7" t="n">
+      <c r="V23" s="7" t="n">
         <v>45079</v>
       </c>
-      <c r="V23" s="7" t="n">
+      <c r="W23" s="7" t="n">
         <v>45110</v>
       </c>
-      <c r="W23" s="7" t="n">
+      <c r="X23" s="7" t="n">
         <v>45120</v>
       </c>
-      <c r="X23" s="5" t="inlineStr">
+      <c r="Y23" s="5" t="inlineStr">
         <is>
           <t>Square N Const &amp; Supply</t>
         </is>
       </c>
-      <c r="Y23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="6" t="n"/>
+      <c r="Z23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
+      <c r="A24" s="5" t="n">
+        <v>454</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
         <v>501259</v>
       </c>
-      <c r="E24" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>Malaya Integrated School</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>LABO</t>
         </is>
       </c>
-      <c r="G24" s="5" t="inlineStr">
+      <c r="H24" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H24" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="5" t="inlineStr">
+      <c r="K24" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">PROPOSED CONSTRUCTION OF ONE (1) STOREY - FOUR (4) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND RAIN WATER COLLECTOR TWO (2) SETS </t>
         </is>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="L24" s="5" t="n">
         <v>17467038.05</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="M24" s="5" t="n">
         <v>10339297.77</v>
       </c>
-      <c r="M24" s="5" t="inlineStr">
+      <c r="N24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <v>45637</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="Q24" s="7" t="n">
         <v>45697</v>
       </c>
-      <c r="Q24" s="5" t="inlineStr">
+      <c r="R24" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="R24" s="5" t="inlineStr">
+      <c r="S24" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S24" s="7" t="n">
+      <c r="T24" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="T24" s="7" t="n">
+      <c r="U24" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U24" s="7" t="n">
+      <c r="V24" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V24" s="7" t="n">
+      <c r="W24" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="W24" s="7" t="n">
+      <c r="X24" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="X24" s="5" t="inlineStr">
+      <c r="Y24" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y24" s="5" t="inlineStr">
+      <c r="Z24" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="Z24" s="6" t="n"/>
+      <c r="AA24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="5" t="n">
+        <v>455</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Camarines Norte</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="E25" s="5" t="n">
         <v>112308</v>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Mangcawayan Island Elementary School</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>VINZONS</t>
         </is>
       </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H25" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="K25" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF ONE (1) STOREY - THREE (3) CLASSROOMS SCHOOL BUILDING (WITH COMMON TOILET) WITH PROVISION OF SCHOOL FURNITURE AND RAIN WATER COLLECTOR TWO (2) SETS - TRIPLE HAULING</t>
         </is>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="L25" s="5" t="n">
         <v>13898660.22</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="M25" s="5" t="n">
         <v>9599009.6</v>
       </c>
-      <c r="M25" s="5" t="inlineStr">
+      <c r="N25" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="Q25" s="7" t="n">
         <v>45667</v>
       </c>
-      <c r="Q25" s="5" t="inlineStr">
+      <c r="R25" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="R25" s="5" t="inlineStr">
+      <c r="S25" s="5" t="inlineStr">
         <is>
           <t>INFRA06-11-2023CN</t>
         </is>
       </c>
-      <c r="S25" s="7" t="n">
+      <c r="T25" s="7" t="n">
         <v>45237</v>
       </c>
-      <c r="T25" s="7" t="n">
+      <c r="U25" s="7" t="n">
         <v>45245</v>
       </c>
-      <c r="U25" s="7" t="n">
+      <c r="V25" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="V25" s="7" t="n">
+      <c r="W25" s="7" t="n">
         <v>45307</v>
       </c>
-      <c r="W25" s="7" t="n">
+      <c r="X25" s="7" t="n">
         <v>45457</v>
       </c>
-      <c r="X25" s="5" t="inlineStr">
+      <c r="Y25" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y25" s="5" t="inlineStr">
+      <c r="Z25" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">WITH RETIFICATION </t>
         </is>
       </c>
-      <c r="Z25" s="6" t="n"/>
+      <c r="AA25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
+      <c r="A26" s="5" t="n">
+        <v>456</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="D26" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="E26" s="5" t="n">
         <v>300315</v>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>Salvacion High School</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>SIPOCOT</t>
         </is>
       </c>
-      <c r="G26" s="5" t="inlineStr">
+      <c r="H26" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H26" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="K26" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS, 1 STOREY, 4 CLASSROOM SCHOOL BUILDING W/ 2 UNITS, 4 SEATER WATER AND SANITATION FACILITIES, 2 UNITS RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 2 UNITS, 1 STOREY, 4 CLASSROOM SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="L26" s="5" t="n">
         <v>34039259.84</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="M26" s="5" t="n">
         <v>33361240.37</v>
       </c>
-      <c r="M26" s="5" t="inlineStr">
+      <c r="N26" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="7" t="n">
         <v>45634</v>
       </c>
-      <c r="P26" s="7" t="n">
+      <c r="Q26" s="7" t="n">
         <v>45727</v>
       </c>
-      <c r="Q26" s="5" t="inlineStr">
+      <c r="R26" s="5" t="inlineStr">
         <is>
           <t>2024-05-043</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
+      <c r="S26" s="5" t="inlineStr">
         <is>
           <t>2024-05-043</t>
         </is>
       </c>
-      <c r="S26" s="7" t="n">
+      <c r="T26" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T26" s="7" t="n">
+      <c r="U26" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U26" s="7" t="n">
+      <c r="V26" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V26" s="7" t="n">
+      <c r="W26" s="7" t="n">
         <v>45301</v>
       </c>
-      <c r="W26" s="7" t="n">
+      <c r="X26" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="X26" s="5" t="inlineStr">
+      <c r="Y26" s="5" t="inlineStr">
         <is>
           <t>Honeyville Construction</t>
         </is>
       </c>
-      <c r="Y26" s="5" t="inlineStr">
+      <c r="Z26" s="5" t="inlineStr">
         <is>
           <t>approved time extension</t>
         </is>
       </c>
-      <c r="Z26" s="6" t="n"/>
+      <c r="AA26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
+      <c r="A27" s="5" t="n">
+        <v>457</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C27" s="5" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="E27" s="5" t="n">
         <v>112696</v>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Tampuhan ES</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>LIBMANAN</t>
         </is>
       </c>
-      <c r="G27" s="5" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J27" s="5" t="inlineStr">
+      <c r="K27" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="L27" s="5" t="n">
         <v>10803221.3</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="M27" s="5" t="n">
         <v>9474512.960000001</v>
       </c>
-      <c r="M27" s="5" t="inlineStr">
+      <c r="N27" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="P27" s="7" t="n">
         <v>45591</v>
       </c>
-      <c r="P27" s="5" t="inlineStr"/>
-      <c r="Q27" s="5" t="inlineStr">
+      <c r="Q27" s="5" t="inlineStr"/>
+      <c r="R27" s="5" t="inlineStr">
         <is>
           <t>2024-05-044</t>
         </is>
       </c>
-      <c r="R27" s="5" t="inlineStr">
+      <c r="S27" s="5" t="inlineStr">
         <is>
           <t>2024-05-044</t>
         </is>
       </c>
-      <c r="S27" s="7" t="n">
+      <c r="T27" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T27" s="7" t="n">
+      <c r="U27" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U27" s="7" t="n">
+      <c r="V27" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V27" s="7" t="n">
+      <c r="W27" s="7" t="n">
         <v>45313</v>
       </c>
-      <c r="W27" s="7" t="n">
+      <c r="X27" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="X27" s="5" t="inlineStr">
+      <c r="Y27" s="5" t="inlineStr">
         <is>
           <t>TGME Construction and Supply</t>
         </is>
       </c>
-      <c r="Y27" s="5" t="inlineStr"/>
-      <c r="Z27" s="6" t="n"/>
+      <c r="Z27" s="5" t="inlineStr"/>
+      <c r="AA27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="inlineStr">
+      <c r="A28" s="5" t="n">
+        <v>458</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
+      <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="D28" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="E28" s="5" t="n">
         <v>112757</v>
       </c>
-      <c r="E28" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>Barobaybay ES</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>MAGARAO</t>
         </is>
       </c>
-      <c r="G28" s="5" t="inlineStr">
+      <c r="H28" s="5" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="H28" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="K28" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="L28" s="5" t="n">
         <v>10728585.06</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="M28" s="5" t="n">
         <v>10342846.08</v>
       </c>
-      <c r="M28" s="5" t="inlineStr">
+      <c r="N28" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="7" t="n">
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7" t="n">
         <v>45574</v>
       </c>
-      <c r="P28" s="5" t="inlineStr"/>
-      <c r="Q28" s="5" t="inlineStr">
+      <c r="Q28" s="5" t="inlineStr"/>
+      <c r="R28" s="5" t="inlineStr">
         <is>
           <t>2024-05-045</t>
         </is>
       </c>
-      <c r="R28" s="5" t="inlineStr">
+      <c r="S28" s="5" t="inlineStr">
         <is>
           <t>2024-05-045</t>
         </is>
       </c>
-      <c r="S28" s="7" t="n">
+      <c r="T28" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T28" s="7" t="n">
+      <c r="U28" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U28" s="7" t="n">
+      <c r="V28" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V28" s="7" t="n">
+      <c r="W28" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="W28" s="7" t="n">
+      <c r="X28" s="7" t="n">
         <v>45454</v>
       </c>
-      <c r="X28" s="5" t="inlineStr">
+      <c r="Y28" s="5" t="inlineStr">
         <is>
           <t>TRDV Construction and Supply</t>
         </is>
       </c>
-      <c r="Y28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="6" t="n"/>
+      <c r="Z28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="inlineStr">
+      <c r="A29" s="5" t="n">
+        <v>459</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C29" s="5" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="E29" s="5" t="n">
         <v>112556</v>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Oring ES</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>CARAMOAN</t>
         </is>
       </c>
-      <c r="G29" s="5" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H29" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
+      <c r="K29" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 2 UNITS, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 2 UNITS, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="L29" s="5" t="n">
         <v>22399589.68</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="M29" s="5" t="n">
         <v>22130242.21</v>
       </c>
-      <c r="M29" s="5" t="inlineStr">
+      <c r="N29" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" s="7" t="n">
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="P29" s="5" t="inlineStr"/>
-      <c r="Q29" s="5" t="inlineStr">
+      <c r="Q29" s="5" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr">
         <is>
           <t>2024-05-046</t>
         </is>
       </c>
-      <c r="R29" s="5" t="inlineStr">
+      <c r="S29" s="5" t="inlineStr">
         <is>
           <t>2024-05-046</t>
         </is>
       </c>
-      <c r="S29" s="7" t="n">
+      <c r="T29" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T29" s="7" t="n">
+      <c r="U29" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U29" s="7" t="n">
+      <c r="V29" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V29" s="7" t="n">
+      <c r="W29" s="7" t="n">
         <v>45289</v>
       </c>
-      <c r="W29" s="7" t="n">
+      <c r="X29" s="7" t="n">
         <v>45456</v>
       </c>
-      <c r="X29" s="5" t="inlineStr">
+      <c r="Y29" s="5" t="inlineStr">
         <is>
           <t>TGME Construction and Supply</t>
         </is>
       </c>
-      <c r="Y29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="6" t="n"/>
+      <c r="Z29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="inlineStr">
+      <c r="A30" s="5" t="n">
+        <v>460</v>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C30" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="E30" s="5" t="n">
         <v>500468</v>
       </c>
-      <c r="E30" s="5" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>Harrison Integrated School</t>
         </is>
       </c>
-      <c r="F30" s="5" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>GARCHITORENA</t>
         </is>
       </c>
-      <c r="G30" s="5" t="inlineStr">
+      <c r="H30" s="5" t="inlineStr">
         <is>
           <t>4th</t>
         </is>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="K30" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="L30" s="5" t="n">
         <v>11795242.42</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="M30" s="5" t="n">
         <v>11526923.04</v>
       </c>
-      <c r="M30" s="5" t="inlineStr">
+      <c r="N30" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N30" s="5" t="n">
+      <c r="O30" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O30" s="7" t="n">
+      <c r="P30" s="7" t="n">
         <v>45584</v>
       </c>
-      <c r="P30" s="5" t="inlineStr"/>
-      <c r="Q30" s="5" t="inlineStr">
+      <c r="Q30" s="5" t="inlineStr"/>
+      <c r="R30" s="5" t="inlineStr">
         <is>
           <t>2024-05-047</t>
         </is>
       </c>
-      <c r="R30" s="5" t="inlineStr">
+      <c r="S30" s="5" t="inlineStr">
         <is>
           <t>2024-05-047</t>
         </is>
       </c>
-      <c r="S30" s="7" t="n">
+      <c r="T30" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="U30" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U30" s="7" t="n">
+      <c r="V30" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V30" s="7" t="n">
+      <c r="W30" s="7" t="n">
         <v>45309</v>
       </c>
-      <c r="W30" s="7" t="n">
+      <c r="X30" s="7" t="n">
         <v>45464</v>
       </c>
-      <c r="X30" s="5" t="inlineStr">
+      <c r="Y30" s="5" t="inlineStr">
         <is>
           <t>MARAKESH ENTERPRISES</t>
         </is>
       </c>
-      <c r="Y30" s="5" t="inlineStr"/>
-      <c r="Z30" s="6" t="n"/>
+      <c r="Z30" s="5" t="inlineStr"/>
+      <c r="AA30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
+      <c r="A31" s="5" t="n">
+        <v>461</v>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C31" s="5" t="inlineStr">
+      <c r="D31" s="5" t="inlineStr">
         <is>
           <t>Camarines Sur</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="E31" s="5" t="n">
         <v>112324</v>
       </c>
-      <c r="E31" s="5" t="inlineStr">
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>Cristo Rey Elementary School</t>
         </is>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>BAAO</t>
         </is>
       </c>
-      <c r="G31" s="5" t="inlineStr">
+      <c r="H31" s="5" t="inlineStr">
         <is>
           <t>5th</t>
         </is>
       </c>
-      <c r="H31" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
+      <c r="K31" s="5" t="inlineStr">
         <is>
           <t>PROPOSED CONSTRUCTION OF 1 UNIT, 1 STOREY, 2 CLASSROOM SCHOOL BUILDING W/ 1 UNIT, 4 SEATER WATER AND SANITATION FACILITIES, 1 UNIT RAINWATER COLLECTOR, AND SCHOOL FURNITURE FOR 1 UNIT, 1 STO - 2 CL (7m x 9m) SCHOOL BUILDING</t>
         </is>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="L31" s="5" t="n">
         <v>10792740.79</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="M31" s="5" t="n">
         <v>8646767.359999999</v>
       </c>
-      <c r="M31" s="5" t="inlineStr">
+      <c r="N31" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="O31" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="O31" s="7" t="n">
+      <c r="P31" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="P31" s="5" t="inlineStr"/>
-      <c r="Q31" s="5" t="inlineStr">
+      <c r="Q31" s="5" t="inlineStr"/>
+      <c r="R31" s="5" t="inlineStr">
         <is>
           <t>2024-05-048</t>
         </is>
       </c>
-      <c r="R31" s="5" t="inlineStr">
+      <c r="S31" s="5" t="inlineStr">
         <is>
           <t>2024-05-048</t>
         </is>
       </c>
-      <c r="S31" s="7" t="n">
+      <c r="T31" s="7" t="n">
         <v>45253</v>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="U31" s="7" t="n">
         <v>45261</v>
       </c>
-      <c r="U31" s="7" t="n">
+      <c r="V31" s="7" t="n">
         <v>45273</v>
       </c>
-      <c r="V31" s="7" t="n">
+      <c r="W31" s="7" t="n">
         <v>45313</v>
       </c>
-      <c r="W31" s="7" t="n">
+      <c r="X31" s="7" t="n">
         <v>45453</v>
       </c>
-      <c r="X31" s="5" t="inlineStr">
+      <c r="Y31" s="5" t="inlineStr">
         <is>
           <t>RIDERS CORNER BUILDING AND REALTY DEVELOPMENT CORPORATION</t>
         </is>
       </c>
-      <c r="Y31" s="5" t="inlineStr"/>
-      <c r="Z31" s="6" t="n"/>
+      <c r="Z31" s="5" t="inlineStr"/>
+      <c r="AA31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="inlineStr">
+      <c r="A32" s="5" t="n">
+        <v>462</v>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
+      <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C32" s="5" t="inlineStr">
+      <c r="D32" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="E32" s="5" t="n">
         <v>174016</v>
       </c>
-      <c r="E32" s="5" t="inlineStr">
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>Pananaogan Elementary School</t>
         </is>
       </c>
-      <c r="F32" s="5" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>BATO</t>
         </is>
       </c>
-      <c r="G32" s="5" t="inlineStr">
+      <c r="H32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H32" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J32" s="5" t="inlineStr">
+      <c r="K32" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="L32" s="5" t="n">
         <v>17171717.17</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="M32" s="5" t="n">
         <v>16742770.61</v>
       </c>
-      <c r="M32" s="5" t="inlineStr">
+      <c r="N32" s="5" t="inlineStr">
         <is>
           <t>Completed</t>
         </is>
       </c>
-      <c r="N32" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="7" t="n">
+      <c r="O32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>0</v>
+      <c r="Q32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S32" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S32" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T32" s="5" t="inlineStr">
         <is>
@@ -3696,96 +3790,99 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W32" s="7" t="n">
+      <c r="W32" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X32" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X32" s="5" t="inlineStr">
+      <c r="Y32" s="5" t="inlineStr">
         <is>
           <t>STEVEN CONSTRUCTION&amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="6" t="n"/>
+      <c r="Z32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="5" t="n">
+        <v>463</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="D33" s="5" t="inlineStr">
         <is>
           <t>Catanduanes</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="E33" s="5" t="n">
         <v>113296</v>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>Siay Elementery School</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>SAN MIGUEL</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="H33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Lone </t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="K33" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY THREE (3) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="L33" s="5" t="n">
         <v>17637171.72</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="M33" s="5" t="n">
         <v>17186395.36</v>
       </c>
-      <c r="M33" s="5" t="inlineStr">
+      <c r="N33" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N33" s="5" t="n">
+      <c r="O33" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="O33" s="7" t="n">
+      <c r="P33" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="Q33" s="5" t="n">
-        <v>0</v>
+      <c r="Q33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
       </c>
       <c r="R33" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="S33" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
+      <c r="S33" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="T33" s="5" t="inlineStr">
         <is>
@@ -3802,836 +3899,865 @@
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="W33" s="7" t="n">
+      <c r="W33" s="5" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="X33" s="7" t="n">
         <v>45436</v>
       </c>
-      <c r="X33" s="5" t="inlineStr">
+      <c r="Y33" s="5" t="inlineStr">
         <is>
           <t>NGS CONSTRUCTION&amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="6" t="n"/>
+      <c r="Z33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="5" t="n">
+        <v>464</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C34" s="5" t="inlineStr">
+      <c r="D34" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="E34" s="5" t="n">
         <v>113866</v>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>Daplian ES</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>SAN FERNANDO</t>
         </is>
       </c>
-      <c r="G34" s="5" t="inlineStr">
+      <c r="H34" s="5" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J34" s="5" t="inlineStr">
+      <c r="K34" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="L34" s="5" t="n">
         <v>12273116.16</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="M34" s="5" t="n">
         <v>12130990.29</v>
       </c>
-      <c r="M34" s="5" t="inlineStr">
+      <c r="N34" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N34" s="5" t="n">
+      <c r="O34" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="P34" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q34" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R34" s="5" t="inlineStr">
+        <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R34" s="5" t="inlineStr">
+      <c r="S34" s="5" t="inlineStr">
         <is>
           <t>2024-026</t>
         </is>
       </c>
-      <c r="S34" s="7" t="n">
+      <c r="T34" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T34" s="7" t="n">
+      <c r="U34" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U34" s="7" t="n">
+      <c r="V34" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V34" s="7" t="n">
+      <c r="W34" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W34" s="7" t="n">
+      <c r="X34" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X34" s="5" t="inlineStr">
+      <c r="Y34" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="6" t="n"/>
+      <c r="Z34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="5" t="n">
+        <v>465</v>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
+      <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C35" s="5" t="inlineStr">
+      <c r="D35" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="E35" s="5" t="n">
         <v>113893</v>
       </c>
-      <c r="E35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>Jagna-an ES</t>
         </is>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G35" s="5" t="inlineStr">
+      <c r="H35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I35" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J35" s="5" t="inlineStr">
+      <c r="K35" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="L35" s="5" t="n">
         <v>12273116.16</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="M35" s="5" t="n">
         <v>12131339.29</v>
       </c>
-      <c r="M35" s="5" t="inlineStr">
+      <c r="N35" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N35" s="5" t="n">
+      <c r="O35" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="P35" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q35" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R35" s="5" t="inlineStr">
+        <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R35" s="5" t="inlineStr">
+      <c r="S35" s="5" t="inlineStr">
         <is>
           <t>2024-027</t>
         </is>
       </c>
-      <c r="S35" s="7" t="n">
+      <c r="T35" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T35" s="7" t="n">
+      <c r="U35" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U35" s="7" t="n">
+      <c r="V35" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V35" s="7" t="n">
+      <c r="W35" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W35" s="7" t="n">
+      <c r="X35" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X35" s="5" t="inlineStr">
+      <c r="Y35" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="6" t="n"/>
+      <c r="Z35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
+      <c r="A36" s="5" t="n">
+        <v>466</v>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C36" s="5" t="inlineStr">
+      <c r="D36" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="E36" s="5" t="n">
         <v>113896</v>
       </c>
-      <c r="E36" s="5" t="inlineStr">
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>Mabini Elementary School</t>
         </is>
       </c>
-      <c r="F36" s="5" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G36" s="5" t="inlineStr">
+      <c r="H36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H36" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
+      <c r="K36" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="L36" s="5" t="n">
         <v>11598060.61</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="M36" s="5" t="n">
         <v>11468418.82</v>
       </c>
-      <c r="M36" s="5" t="inlineStr">
+      <c r="N36" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N36" s="5" t="n">
+      <c r="O36" s="5" t="n">
         <v>0.85</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="P36" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q36" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R36" s="5" t="inlineStr">
+        <is>
           <t>INFRA 2024-09-003</t>
         </is>
       </c>
-      <c r="R36" s="5" t="inlineStr">
+      <c r="S36" s="5" t="inlineStr">
         <is>
           <t>2024-021</t>
         </is>
       </c>
-      <c r="S36" s="7" t="n">
+      <c r="T36" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="T36" s="7" t="n">
+      <c r="U36" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="U36" s="7" t="n">
+      <c r="V36" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="V36" s="7" t="n">
+      <c r="W36" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="W36" s="7" t="n">
+      <c r="X36" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X36" s="5" t="inlineStr">
+      <c r="Y36" s="5" t="inlineStr">
         <is>
           <t>SMDF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="6" t="n"/>
+      <c r="Z36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="inlineStr">
+      <c r="A37" s="5" t="n">
+        <v>467</v>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
+      <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C37" s="5" t="inlineStr">
+      <c r="D37" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="E37" s="5" t="n">
         <v>113898</v>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>Roosevelt Elementary School</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G37" s="5" t="inlineStr">
+      <c r="H37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="K37" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="L37" s="5" t="n">
         <v>12015834.81</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="M37" s="5" t="n">
         <v>11839039.3</v>
       </c>
-      <c r="M37" s="5" t="inlineStr">
+      <c r="N37" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N37" s="5" t="n">
+      <c r="O37" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O37" s="7" t="n">
+      <c r="P37" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q37" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R37" s="5" t="inlineStr">
+        <is>
           <t>INFRA 2024-08-002</t>
         </is>
       </c>
-      <c r="R37" s="5" t="inlineStr">
+      <c r="S37" s="5" t="inlineStr">
         <is>
           <t>2024-028</t>
         </is>
       </c>
-      <c r="S37" s="7" t="n">
+      <c r="T37" s="7" t="n">
         <v>45516</v>
       </c>
-      <c r="T37" s="7" t="n">
+      <c r="U37" s="7" t="n">
         <v>45524</v>
       </c>
-      <c r="U37" s="7" t="n">
+      <c r="V37" s="7" t="n">
         <v>45537</v>
       </c>
-      <c r="V37" s="7" t="n">
+      <c r="W37" s="7" t="n">
         <v>45555</v>
       </c>
-      <c r="W37" s="7" t="n">
+      <c r="X37" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X37" s="5" t="inlineStr">
+      <c r="Y37" s="5" t="inlineStr">
         <is>
           <t>JOHNCB CONSTRUCTION &amp; SUPPLY</t>
         </is>
       </c>
-      <c r="Y37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="6" t="n"/>
+      <c r="Z37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
+      <c r="A38" s="5" t="n">
+        <v>468</v>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C38" s="5" t="inlineStr">
+      <c r="D38" s="5" t="inlineStr">
         <is>
           <t>Masbate</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="E38" s="5" t="n">
         <v>113902</v>
       </c>
-      <c r="E38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>Tutuban Elementary School</t>
         </is>
       </c>
-      <c r="F38" s="5" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>SAN JACINTO</t>
         </is>
       </c>
-      <c r="G38" s="5" t="inlineStr">
+      <c r="H38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H38" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J38" s="5" t="inlineStr">
+      <c r="K38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF ONE (1) STOREY TWO (2) CLASSROOMS SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="L38" s="5" t="n">
         <v>11598060.61</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="M38" s="5" t="n">
         <v>11469699.82</v>
       </c>
-      <c r="M38" s="5" t="inlineStr">
+      <c r="N38" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N38" s="5" t="n">
+      <c r="O38" s="5" t="n">
         <v>0.9</v>
       </c>
-      <c r="O38" s="7" t="n">
+      <c r="P38" s="7" t="n">
         <v>45804</v>
       </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q38" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R38" s="5" t="inlineStr">
+        <is>
           <t>INFRA 2024-09-003</t>
         </is>
       </c>
-      <c r="R38" s="5" t="inlineStr">
+      <c r="S38" s="5" t="inlineStr">
         <is>
           <t>2024-022</t>
         </is>
       </c>
-      <c r="S38" s="7" t="n">
+      <c r="T38" s="7" t="n">
         <v>45545</v>
       </c>
-      <c r="T38" s="7" t="n">
+      <c r="U38" s="7" t="n">
         <v>45553</v>
       </c>
-      <c r="U38" s="7" t="n">
+      <c r="V38" s="7" t="n">
         <v>45565</v>
       </c>
-      <c r="V38" s="7" t="n">
+      <c r="W38" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="W38" s="7" t="n">
+      <c r="X38" s="7" t="n">
         <v>45654</v>
       </c>
-      <c r="X38" s="5" t="inlineStr">
+      <c r="Y38" s="5" t="inlineStr">
         <is>
           <t>SMDF CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Y38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="6" t="n"/>
+      <c r="Z38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="5" t="n">
+        <v>469</v>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C39" s="5" t="inlineStr">
+      <c r="D39" s="5" t="inlineStr">
         <is>
           <t>Masbate City</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="E39" s="5" t="n">
         <v>500393</v>
       </c>
-      <c r="E39" s="5" t="inlineStr">
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>Alejandro Delos Reyes Integrated School</t>
         </is>
       </c>
-      <c r="F39" s="5" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>CITY OF MASBATE (Capital)</t>
         </is>
       </c>
-      <c r="G39" s="5" t="inlineStr">
+      <c r="H39" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H39" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J39" s="5" t="inlineStr">
+      <c r="K39" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">CONSTRUCTION OF SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, SOLAR PV ENERGY SYSTEM, WATER SYSTEM AND FLOOD MARKER </t>
         </is>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="L39" s="5" t="n">
         <v>20202020.2</v>
       </c>
-      <c r="L39" s="5" t="n">
+      <c r="M39" s="5" t="n">
         <v>19798704.92</v>
       </c>
-      <c r="M39" s="5" t="inlineStr">
+      <c r="N39" s="5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
       </c>
-      <c r="N39" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7" t="n">
+      <c r="O39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7" t="n">
         <v>45767</v>
       </c>
-      <c r="P39" s="7" t="n">
+      <c r="Q39" s="7" t="n">
         <v>45765</v>
       </c>
-      <c r="Q39" s="5" t="inlineStr">
+      <c r="R39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - RV - MASBATE CITY - 001</t>
         </is>
       </c>
-      <c r="R39" s="5" t="inlineStr">
+      <c r="S39" s="5" t="inlineStr">
         <is>
           <t>LMS 2024 - RV - MASBATE CITY - 001</t>
         </is>
       </c>
-      <c r="S39" s="7" t="n">
+      <c r="T39" s="7" t="n">
         <v>45358</v>
       </c>
-      <c r="T39" s="7" t="n">
+      <c r="U39" s="7" t="n">
         <v>45366</v>
       </c>
-      <c r="U39" s="7" t="n">
+      <c r="V39" s="7" t="n">
         <v>45383</v>
       </c>
-      <c r="V39" s="7" t="n">
+      <c r="W39" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="W39" s="7" t="n">
+      <c r="X39" s="7" t="n">
         <v>45488</v>
       </c>
-      <c r="X39" s="5" t="inlineStr">
+      <c r="Y39" s="5" t="inlineStr">
         <is>
           <t>GINA'S CONSTRUCTION SERVICES</t>
         </is>
       </c>
-      <c r="Y39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="6" t="n"/>
+      <c r="Z39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="inlineStr">
+      <c r="A40" s="5" t="n">
+        <v>470</v>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C40" s="5" t="inlineStr">
+      <c r="D40" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="E40" s="5" t="n">
         <v>114136</v>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>Sto. Nino Elementary School</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>CASTILLA</t>
         </is>
       </c>
-      <c r="G40" s="5" t="inlineStr">
+      <c r="H40" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">1st </t>
         </is>
       </c>
-      <c r="H40" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
+      <c r="K40" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY3CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, SOLAR PV ENERGY SYSTEM</t>
         </is>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="L40" s="5" t="n">
         <v>18030049.99</v>
       </c>
-      <c r="L40" s="5" t="n">
+      <c r="M40" s="5" t="n">
         <v>16059049.82</v>
       </c>
-      <c r="M40" s="5" t="inlineStr">
+      <c r="N40" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N40" s="5" t="n">
+      <c r="O40" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="O40" s="7" t="n">
+      <c r="P40" s="7" t="n">
         <v>45879</v>
       </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q40" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R40" s="5" t="inlineStr">
+        <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="R40" s="5" t="inlineStr">
+      <c r="S40" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S40" s="7" t="n">
+      <c r="T40" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="T40" s="7" t="n">
+      <c r="U40" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="U40" s="7" t="n">
+      <c r="V40" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V40" s="7" t="n">
+      <c r="W40" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="W40" s="7" t="n">
+      <c r="X40" s="7" t="n">
         <v>45730</v>
       </c>
-      <c r="X40" s="5" t="inlineStr">
+      <c r="Y40" s="5" t="inlineStr">
         <is>
           <t>144 Cubits Builders and Supply</t>
         </is>
       </c>
-      <c r="Y40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="6" t="n"/>
+      <c r="Z40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
+      <c r="A41" s="5" t="n">
+        <v>471</v>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
         <is>
           <t>LMS 2024</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Region V</t>
         </is>
       </c>
-      <c r="C41" s="5" t="inlineStr">
+      <c r="D41" s="5" t="inlineStr">
         <is>
           <t>Sorsogon</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="E41" s="5" t="n">
         <v>302769</v>
       </c>
-      <c r="E41" s="5" t="inlineStr">
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>Sablayan High School</t>
         </is>
       </c>
-      <c r="F41" s="5" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>JUBAN</t>
         </is>
       </c>
-      <c r="G41" s="5" t="inlineStr">
+      <c r="H41" s="5" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="H41" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
+      <c r="K41" s="5" t="inlineStr">
         <is>
           <t>CONSTRUCTION OF 1STY4CL SCHOOL BUILDING (WITH TOILET) WITH PROVISION OF RAINWATER COLLECTOR, SCHOOL FURNITURE, WATER SYSTEM, SOLAR PV ENERGY SYSTEM, SLOPE PROTECTION PROTECTION</t>
         </is>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="L41" s="5" t="n">
         <v>20447749.05</v>
       </c>
-      <c r="L41" s="5" t="n">
+      <c r="M41" s="5" t="n">
         <v>18206941.63</v>
       </c>
-      <c r="M41" s="5" t="inlineStr">
+      <c r="N41" s="5" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="N41" s="5" t="n">
+      <c r="O41" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="O41" s="7" t="n">
+      <c r="P41" s="7" t="n">
         <v>45909</v>
       </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="Q41" s="5" t="inlineStr">
         <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="R41" s="5" t="inlineStr">
+        <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="R41" s="5" t="inlineStr">
+      <c r="S41" s="5" t="inlineStr">
         <is>
           <t>24-04-004</t>
         </is>
       </c>
-      <c r="S41" s="7" t="n">
+      <c r="T41" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="T41" s="7" t="n">
+      <c r="U41" s="7" t="n">
         <v>45420</v>
       </c>
-      <c r="U41" s="7" t="n">
+      <c r="V41" s="7" t="n">
         <v>45432</v>
       </c>
-      <c r="V41" s="7" t="n">
+      <c r="W41" s="7" t="n">
         <v>45632</v>
       </c>
-      <c r="W41" s="7" t="n">
+      <c r="X41" s="7" t="n">
         <v>45730</v>
       </c>
-      <c r="X41" s="5" t="inlineStr">
+      <c r="Y41" s="5" t="inlineStr">
         <is>
           <t>144 Cubits Builders and Supply</t>
         </is>
       </c>
-      <c r="Y41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="6" t="n"/>
+      <c r="Z41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="Z2:Z41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AA2:AA41" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
